--- a/Guaraná.xlsx
+++ b/Guaraná.xlsx
@@ -15,15 +15,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="662">
   <si>
     <t>Treinamento</t>
   </si>
   <si>
-    <t>tomei cápsula de guaraná, café e agora comprei outra parada pra dar energia, o cansaço meu pai...</t>
-  </si>
-  <si>
-    <t>eu e bruno 2 viciados em guaraná</t>
+    <t>pensou em sabor ? #grquentinhas é qualidade e sabor!
+temos quentinhas no valor de ;
+r$ 9,99 mais guaraná natural 😉👍
+r$ 11,99 mais guaraná natural
+peça já a sua !
+aceitamos cartões!!!!!💳
+#quentinhasdelivery
+#rochasg #galobrancosg #quentinhas #sãogonçalo #qualidadeesabor https://t.co/tw2osilvm6</t>
+  </si>
+  <si>
+    <t>sayuri chama refri de guaraná  nao  importa qual refri seja pra ela é guaraná kkkkkkkkkkk</t>
+  </si>
+  <si>
+    <t>hoje do nda me deu uma vontade súbita de guaraná antárctica 
+matando a vontade</t>
+  </si>
+  <si>
+    <t>eu: gente, eu botei mais comida q meu pai
+pai: é pq eu quero comer pouco
+eu: coisa saudável vc num quer não né 
+pai: vou pegar um guaraná
+eu: água num toma né 
+mãe: kkkkkk ih, pâmela tá chata
+😂😂😂😂😂😂</t>
+  </si>
+  <si>
+    <t>a cada 30 min pego um pouco de guaraná jesus q era p fim de semana</t>
+  </si>
+  <si>
+    <t>“tia me dá guaraná” 🥰🥰🥰</t>
+  </si>
+  <si>
+    <t>tomei pó de guaraná e ele me deu mais sono, daqui a pouco vou fazer uma carrerinha e cheirar ele</t>
+  </si>
+  <si>
+    <t>@hastadlol não sei oq vai jantar mas para beber vai ter guaraná</t>
   </si>
   <si>
     <t>informações inúteis sobre mim:
@@ -38,925 +70,111 @@
 bebida fav - guaraná https://t.co/kqcleotkxg</t>
   </si>
   <si>
+    <t>é vocês ??? eu e o @guarana queremos saber qual é o seu sonho de princesa??? https://t.co/euklmrdn4t</t>
+  </si>
+  <si>
+    <t>to quase indo la comprar um guaraná</t>
+  </si>
+  <si>
+    <t>guaraná kuat é muito ruim pita merda</t>
+  </si>
+  <si>
     <t>comendo aquela tapioca com guaraná do amazonas pra dar a força p encarar o dia 
 fiquei foi é com sono 🤣</t>
   </si>
   <si>
-    <t>@urryoonert guaraná aqui não é refrigerante, tá mais para um refresco com muuuuuito açúcar kkk</t>
-  </si>
-  <si>
-    <t>comi um cachorro quente tão bom agr pqp queria mais, até ganhei um copinho de guarana gratis da vendedora super amorzinho</t>
-  </si>
-  <si>
-    <t>@soulthatblooms guaraná em pó me lembra de um dia @hiankrug</t>
-  </si>
-  <si>
-    <t>tempo que eu não sei oq é festa cm bolo e guaraná, vagabundo só quer sabe de brahma e voodk cm energético ainda surgi a ousadia fudeu</t>
-  </si>
-  <si>
-    <t>@marcosquezado1 opa! programão, ein?! vou acompanhar com pipoca e guaraná. mas esses militontos tem mudado de placa e cores... mesmo q extintos, o eleitor tem que aprender a escolher, e a apuração dos votos tem que ser idônea.</t>
-  </si>
-  <si>
-    <t>queria muito um estrogonofe de camarão e um guaraná antártica bem gelado.. deus prfvr tenha piedade de mim</t>
-  </si>
-  <si>
-    <t>rt @lacristina__: so trocar por coca ou guaraná 👍</t>
-  </si>
-  <si>
-    <t>pensou em sabor ? #grquentinhas é qualidade e sabor!
-temos quentinhas no valor de ;
-r$ 9,99 mais guaraná natural 😉👍
-r$ 11,99 mais guaraná natural
-peça já a sua !
-aceitamos cartões!!!!!💳
-nosso atendimento é de segunda a sábado https://t.co/gwibfsdq0q</t>
-  </si>
-  <si>
-    <t>strogonoff com batata palha e guaraná tudo pra mim</t>
-  </si>
-  <si>
-    <t>vou tomar um copo de guaraná e vou dormi</t>
-  </si>
-  <si>
-    <t>rt @vitoriafelix__: quem é q come doce com guaraná véi?????? doce combina com água apenax</t>
-  </si>
-  <si>
-    <t>caralho! como eu queria saber o contexto disso https://t.co/peq4dwqiio</t>
-  </si>
-  <si>
-    <t>@nighttele nao falei amore, pra evitar conflito sabe. não ia morrer por causa de cinco euros mas agora apelaram tudo. beberam meu guaraná dois litros, comeram meu feijão. pronto sabe</t>
-  </si>
-  <si>
-    <t>@francofrito mds... tu é a segunda pessoa que diz que tbm sente gosto de sabão em pó na sukita. 😲
-eu senti gosto de refluxo/ácido do estômago no guaraná.
-mas no fim era só meu paladar morrendo aos poucos mesmo... tem dias que ele não funciona.</t>
-  </si>
-  <si>
-    <t>coisas que combinam:
-pizza + guaraná
-pipoca + refrigerante
-hambúrguer + batata frita
-eu + você comendo tudo isso bb
-vai perder essa oportunidade?</t>
-  </si>
-  <si>
-    <t>aqui em casa poder ter guarana n eu bebo toda hora mais agua q e bom nadaaaa</t>
-  </si>
-  <si>
-    <t>eu to com desejo de tomar dolly guaraná pode isso????</t>
-  </si>
-  <si>
-    <t>@hazukiyoumi dog na chapa estaçao ac 8 reais + guarana em lata te amo</t>
-  </si>
-  <si>
-    <t>comprei um refrizinho p toma com minha janta quando chegasse d facul , tomei tava sem gás meio estranho aí descobri q minha mãe tomou e colocou suco de guarána dentro da garrafa</t>
-  </si>
-  <si>
-    <t>alguem me da um guarana geladinho pod favir</t>
-  </si>
-  <si>
-    <t>a mina aqui no trampo tá comendo um salgado e um guaraná antártica 8:11 da manhã. não tô julgado, só um comentário. #mematem</t>
-  </si>
-  <si>
-    <t>renan perguntou se eu peguei guaraná falei que n ele perguntou se eu queria falei que sim, ele chamou a menina e pegou pra mim</t>
-  </si>
-  <si>
-    <t>suco de guaraná é tudo de bom ne</t>
-  </si>
-  <si>
-    <t>@jenipatzlaff mano sim kkkkk parece guaraná quando for ver já era</t>
-  </si>
-  <si>
-    <t>rt @werleeylima: a vida é loka msm há uns anos atrás eu vi dum da uma facada em moska, e agora acabei de ver os dois junto marcando um salg…</t>
-  </si>
-  <si>
-    <t>pó de guaraná e amendoim, hoje eu tô afim de caprichar</t>
-  </si>
-  <si>
-    <t>fui tomar pó de guaraná achando que tinha gosto de tang, quando fui ver era só a terra</t>
-  </si>
-  <si>
-    <t>bom dia pessoal, hoje eu substitui uma xícara de café por uma colher de pó de guaraná. 
-10 minutos atrás eu tava morrendo com uma pequena aceleração. 
-1º dia de pó de guaraná e zero sonos. 
-acompanhem o diário</t>
-  </si>
-  <si>
-    <t>acordei agr, abri a geladeira levaram as coca deixaram so os guaraná antártica 🙄🙄🙄🙄🤨</t>
-  </si>
-  <si>
-    <t>rt @sulcideluk: charrua melhor guaraná quem discorda tá errado</t>
-  </si>
-  <si>
-    <t>@drewan_10 calma, sou burra, não entendi o pq você colocou guaraná água????????</t>
-  </si>
-  <si>
-    <t>rt @noiascoisadas: achorro  c https://t.co/ecnbp7ak3u</t>
-  </si>
-  <si>
-    <t>eu comprei um guaraná dois litros em outra cidade, e abriram enquanto eu estava fora de casa. ou seja, eu não tomei nem um copo. eu vou fazer barraco sim. fodasse</t>
-  </si>
-  <si>
-    <t>de quebra bebi um mini guaraná que muito provável que era das minhas sobrinhas e eu vou ouvir muito alguém falando que não era pra beber</t>
-  </si>
-  <si>
-    <t>@pqsumiram eu tava assistindo o 7x1 tomando esse guarana</t>
-  </si>
-  <si>
-    <t>eu sobre procurar guaraná jesus aqui em sp https://t.co/tngsmifbpa</t>
-  </si>
-  <si>
-    <t>rt @brvmxs: 10: 40 da manha, acordar, tomar um café da manhã saudável com um guaraná e depois jogar uma aramzinha c meu amor, ahaaaaam</t>
-  </si>
-  <si>
-    <t>aquele guaraná em pó pra levantar a moral</t>
-  </si>
-  <si>
-    <t>só bolinha de queijo, guaraná e chocolate pra me fazer feliz hj... lá vou eu gastar dinheiro na facul</t>
-  </si>
-  <si>
-    <t>tomo guaraná, suco de caju, goiabada para sobremesa!</t>
-  </si>
-  <si>
-    <t>eu queria meu guaraná jesus e o esaú n guardou nada pra mim
-eu fiquei muito triste https://t.co/1iwjfs581i</t>
-  </si>
-  <si>
-    <t>@btsfeel hoje vai ser uma festa
-bola e guaraná muito doce pra comer
-feliz aniversário anjinho :)
-https://t.co/mg4kmkotxs</t>
-  </si>
-  <si>
-    <t>matei minha vontade de comer estrogonofe com copao de guaraná antártica</t>
-  </si>
-  <si>
-    <t>fui tomar um guaraná lembrei do rancho kkkk</t>
-  </si>
-  <si>
-    <t>eu acho que pelé é a pessoa que mais marcou gols vestindo a canarinha. e você? vota lá em @guarana. se é #coisadelas é #coisanossa.</t>
-  </si>
-  <si>
-    <t>@favoriteany é feito de guaraná mas não é refrigerante, tá mais para um refresco com muuuuuito açúcar</t>
-  </si>
-  <si>
-    <t>rt @timmaiabot: tomo guaraná, suco de caju, goiabada para sobremesa!</t>
-  </si>
-  <si>
-    <t>charrua melhor guaraná quem discorda tá errado</t>
-  </si>
-  <si>
-    <t>@_p4zz só um eno guaraná depois kkk https://t.co/9obuylu00z</t>
-  </si>
-  <si>
-    <t>que guarana ruim é esse kuat gosto de remédio purinho, ainda me sobra varios dele... 😣🤮</t>
-  </si>
-  <si>
-    <t>@loveygmin não tem, só guaraná mesmo 😞</t>
-  </si>
-  <si>
-    <t>putz liguei o ppv do #bbb20 é tão falando de açaí com banana, morango, guaraná, leite em pó, mel... aff é uma ofensa para nós que somos paraense! o nosso máximo aqui, se não for o açaí sem nada só acompanhado de comida com farinha d’agua, é com açúcar e farinha de tapioca.🤦🏻‍♀️</t>
-  </si>
-  <si>
-    <t>@blucca_ mãe ficava perdida no domingo a tarde, enquato nos tomava guaraná de garrafão de vidro, jogando uma sinuca vendo o pai joga bocha</t>
-  </si>
-  <si>
-    <t>“tá bebendo guaraná e tá pegando ela” lima, luan. (@luan_lima94)</t>
-  </si>
-  <si>
-    <t>@claeruh parece o billy de st, é escroto e faz/fala merda pra caralho a maior parte do tempo mas faz algo decente uma ou outra vez e vira o perfeito que mijam guaraná pra ele</t>
-  </si>
-  <si>
-    <t>hoje pedi pro meu vô me trazer uma pepsi ou um guaraná, ele me trouxe uma sukita</t>
-  </si>
-  <si>
-    <t>eu tô só a minha mãe que saiu pra comprar carne moída pra fazer macarrão, e guaraná, só porque thaynara está aqui. 🙄</t>
-  </si>
-  <si>
-    <t>minhas preces foram ouvidas! agora só falta death stranding https://t.co/mtz2g21mmw</t>
-  </si>
-  <si>
-    <t>a segunda feira já foi quase todo volume de trabalho concentrado num dia só. hoje eu já acordei tomando meu shot de limão adicionado de guaraná em pó e catei a cápsula mais forte de café que já passou por essa casa. agora só falta um guindaste me levantar porque tá foda...</t>
-  </si>
-  <si>
-    <t>eu acho que cris rozeira é considerada maior artilheira das olimpíadas pq esse fracassado n consegue chegar em quase nenhuma final com seleção, q dirá ser artilheiro. e você? vota lá em @guarana. se é #coisadelas é #coisanossa.</t>
-  </si>
-  <si>
-    <t>guarana friburgo esta no meu top 3 de refrigerantes</t>
-  </si>
-  <si>
-    <t>nois bebe eh guaraná nois bebe eh guaraná cachaça deixa nois doido e faz a gente brigar</t>
-  </si>
-  <si>
-    <t>tudo que eu queria era aquele guaraná do amazonas que vende no bonarabe</t>
-  </si>
-  <si>
-    <t>@jasrwgers itiiiiiiiiijehehehejejeje oh meu deus a irmã te ama demais! traz bolo sim, vamos comer muito bolo e guaraná</t>
-  </si>
-  <si>
-    <t>eu acho que marta é a pessoa que mais marcou gols vestindo a canarinha. e você? vota lá em @guarana. se é #coisadelas é #coisanossa.</t>
-  </si>
-  <si>
-    <t>@starbockys hoje 
-vai ser 
-uma festa
-bolo e guaraná 
-muito doce pra voceeê
-é o seu aniversário 
-vamos festejar e os amigos receber</t>
-  </si>
-  <si>
-    <t>prior inferno falou q tinha coca cola e o guaraná antarctica patrocina o bbb kkkkkkkk</t>
-  </si>
-  <si>
-    <t>bolo e guaraná gente https://t.co/6p7dedyihn</t>
-  </si>
-  <si>
-    <t>rt @mhventura77: @myynfreiitas voltava do cairu gritando, quebrando banco, bebendo 51 com guaraná e aturando a paulinha bêbada e quer recla…</t>
-  </si>
-  <si>
-    <t>@guarana marta joga outro esporte.</t>
-  </si>
-  <si>
-    <t>hahahaha eu amo esse piroca e vou defendê-lo 
-nana do nana do guaraná do ludovico https://t.co/vuy36clqcl</t>
+    <t>@theuses_ deram: bee
+sou: 
+deram: muito fofo e engraçado
+sou: 
+deram: 1,77?
+tenho: 
+deram: goianinho guaraná
+sou: 
+deram: 24
+tenho:</t>
+  </si>
+  <si>
+    <t>top três coisas que estão me fazendo repensar sobre mudar pra belém:
+- minha psicologa
+- espetin de rua
+- guaraná jesus</t>
+  </si>
+  <si>
+    <t>vou de base que amanhã eu tenho que lavar 2 ponto de ônibus, quem passar por vitória e me ver lavando os ponto pode deixa um guaraná lá em</t>
   </si>
   <si>
     <t>a pessoa está resfriada ainda toma dois sorvetes e um guaraná geladíssimo</t>
   </si>
   <si>
-    <t>parei de tomar refri há mais de um ano (pq eu quis) e o sabor que eu mais sinto falta é o guaraná, mas agora lançaram o natu e eu preciso experimentar</t>
-  </si>
-  <si>
-    <t>rt @ferjhon33: “tá bebendo guaraná e tá pegando ela” lima, luan. (@luan_lima94)</t>
-  </si>
-  <si>
-    <t>rt @rubinhoffc: guaraná kuat não é refrigerante, é remédio</t>
-  </si>
-  <si>
-    <t>rt @leolima660: pensei q fossse uma foto dela e outra do guaraná kkk</t>
-  </si>
-  <si>
-    <t>@_pedronapa o two feet vai fazer show no lolla, todo mundo vai fazer sexo em publico pelo visto ou bater umazinha https://t.co/hx65egp6cz</t>
-  </si>
-  <si>
-    <t>@domconstantino projeto meu pro futuro</t>
-  </si>
-  <si>
-    <t>@pedro_guarana daria um ótimo filme</t>
-  </si>
-  <si>
-    <t>@raposinhanina importante é ser amada 😊 eu chamo a frida de guaraná kuat 😂😂😂 (??!)</t>
-  </si>
-  <si>
-    <t>teste mesmo é acertar a quantidade de suco/xarope de guaraná...
-se me pedir pra fazer um suco de caju eu saio correndo e gritando. https://t.co/pu7uo1ikva</t>
-  </si>
-  <si>
-    <t>eu: filho quer suco?
-ele: não mãe, "anuna". (guaraná) https://t.co/o2dn2hzvbi</t>
-  </si>
-  <si>
-    <t>rt @crvgdanni: pó de guaraná e amendoim, hoje eu tô afim de caprichar</t>
-  </si>
-  <si>
-    <t>eu: gente, eu botei mais comida q meu pai
-pai: é pq eu quero comer pouco
-eu: coisa saudável vc num quer não né 
-pai: vou pegar um guaraná
-eu: água num toma né 
-mãe: kkkkkk ih, pâmela tá chata
-😂😂😂😂😂😂</t>
-  </si>
-  <si>
-    <t>queria tomar uns 2 litros de guaraná jesus agr tlgd</t>
-  </si>
-  <si>
-    <t>meu último beijo certamente foi em 1900 e guaraná de rolha</t>
-  </si>
-  <si>
-    <t>n sei se eu to adaptado ou se meu corpo ta mais resistente, to tomando café e logo em seguido to bebendo guaraná pra da energia e n adianta em porra nenhuma.</t>
-  </si>
-  <si>
-    <t>eu sou muito desastrada, deixei o guaraná cair todo em mim kkkkkkkk</t>
-  </si>
-  <si>
-    <t>olha só peguei minha folga na quinta pelo grenal, mas não sei se aguento até lá... estou o pó do guarana</t>
-  </si>
-  <si>
-    <t>escolha qual combo deseja e faça já sua reserva para esta semana mesmo ou final de semana, onde atenderemos até domingo... 
-combo promocional, comprando 200 minis, você tem desconto e ainda ganha 1 guaraná antarctica 1,5l ou 20 bananinhas, uma das opções... https://t.co/ovidwjtgpw</t>
-  </si>
-  <si>
-    <t>eu fui falar com meu amigo q tinha tomado uma capsula de guarana e acabei falando q tomei capsula de gasolina</t>
-  </si>
-  <si>
-    <t>@littlesacra trás guaraná jesus pa nós</t>
-  </si>
-  <si>
-    <t>@guileitaooo @eddusoaress tu come todo dia um e vem com essa. bora guaraná amanhã</t>
-  </si>
-  <si>
-    <t>amanhã vou gastar todo meu dinheiro com drogas. das mais pesadas. sem dó nem piedade. bolo de chocolate, guaraná da amazônia, milkshake, sunday vo ficar lokona</t>
-  </si>
-  <si>
-    <t>@piiece_of_peace @agustdvv açaí de banana e guarana eu gosto, mas me enjoa rápido pq fica mt doce pra mim
-eu gosto de morango ou maracuja que aí eu posso encher de complementos e não enjoa nunca ♥</t>
-  </si>
-  <si>
-    <t>rt @hemymarinhotnm1: @ellenbarcelloss opaaaaaaa, então fechou, leva o flexa guaraná kkkkkkkkkk</t>
-  </si>
-  <si>
-    <t>@hastadlol ja bebeu seu guarana hj?</t>
-  </si>
-  <si>
-    <t>eu acho que formiga é a atleta com recorde de idade a participar de uma copa do mundo. e você? vota lá em @guarana. se é #coisadelas é #coisanossa.</t>
-  </si>
-  <si>
-    <t>@mltbysungg @melhortutorial bebi umas 4 lata de guarana seguida, to e m b r e a g a d o</t>
-  </si>
-  <si>
-    <t>eu te amo, guaraná antarctica</t>
-  </si>
-  <si>
-    <t>eu acho que marta foi a única pessoa do mundo eleita seis vezes pela bola de ouro da fifa. e você? vota lá em @guarana. se é #coisadelas é #coisanossa.</t>
-  </si>
-  <si>
-    <t>matheus canella é o melhor entretenimento inútil da eternet. 1h23 nunca passaram tão rápido. obrigado @bearitz_  e @pedrotolhos  obrigado @guarana</t>
-  </si>
-  <si>
-    <t>ontem n fui dormir mt bem e hoje tb n acordei legal... 09h da manhã eu comendo bolinho de queijo e mistinho cheio de ketchup c um guaraná bem geladinho, agora m sinto preparada p qualquer tombo da vida</t>
-  </si>
-  <si>
-    <t>minha chefe manda eu ir assistir treinamento, só pra comer pipoca e tomar guaraná 😂😂😂 melhor não tem ❤️</t>
-  </si>
-  <si>
-    <t>rt @portellazzz: como que eu vou parar de tomar refri se guaraná antártica é a melhor coisa já criada nesse mundo ?</t>
-  </si>
-  <si>
-    <t>@boninho seria tudooo, junto com a do guaraná antártica hahahaab https://t.co/dddx8bckmd</t>
-  </si>
-  <si>
-    <t>pensei q fossse uma foto dela e outra do guaraná kkk https://t.co/nq3nvyg5qt</t>
-  </si>
-  <si>
-    <t>tentando estudar sem usar nada pra ficar acordada, mas estou falhando miseravelmente e vamos de energético e pó de guaraná</t>
-  </si>
-  <si>
-    <t>até hj eu espero as minhas, vou nem falar do meu guaraná da amazônia https://t.co/iqriiqdyom</t>
-  </si>
-  <si>
-    <t>ja teve quarto branco. confirmou q vai ter poder supremo.
-pra ser o melhor bbb de todos, soh falta a prova do guarana antarctica q a paulinha caia de cara toda hora.</t>
-  </si>
-  <si>
-    <t>"existem pessoas que amam guaraná eu por exemplo tenho uma tatuagem disso" "tatuagem do guaraná? serio" "não óbvio que não" eu lembrando que tenho a tatuagem do vinho</t>
-  </si>
-  <si>
-    <t>@carlosfreitaaas quero o guaraná</t>
-  </si>
-  <si>
-    <t>tá certo que eu prefiro guaraná mas eu to bebendo uma coca bem geladinha 🤩</t>
-  </si>
-  <si>
-    <t>sedenta por um copo de guaraná</t>
-  </si>
-  <si>
-    <t>o acreano q mora fora quando encontra qualquer projeto de açaí que nao tenha gosto de xarope de guaraná nao quer guerra com ninguem</t>
-  </si>
-  <si>
-    <t>@banydeinert já 
-eu tava tomando guaraná uma vez, e meu pai cerveja. eu saí um pouco de perto e cheguei já bebendo... ele tinha trocado 🤡🤡🤡🤡</t>
-  </si>
-  <si>
-    <t>rt @rendowmetw: eu tava vendo aquele canal lá da guaraná, especial de natal
-aí ai
-é https://t.co/dcef59udxo</t>
-  </si>
-  <si>
-    <t>acordei estressado, mas fui no mercado e lancei aquele guaraná do bom</t>
-  </si>
-  <si>
-    <t>vontade de comer um italiano quentinho e tomar um refrigerante de guaraná</t>
-  </si>
-  <si>
-    <t>@guarana os dois tem a mesma quantidade</t>
-  </si>
-  <si>
-    <t>bom dia pra vc que já levou seu "guaraná" da manhã...</t>
-  </si>
-  <si>
-    <t>@resenhaporco palmeiras 4 x 1 guaraná</t>
-  </si>
-  <si>
-    <t>uma lata de guaraná explodiu a minha frente 😭 agr tenho a farda quase toda molhada</t>
-  </si>
-  <si>
-    <t>@lari_guarana caralho maluco, é surubão com mais de 50.000 pessoas slk</t>
-  </si>
-  <si>
-    <t>caraca mane, que desejo absurdo que eu to de tomar um guaraná antártica geladin</t>
-  </si>
-  <si>
-    <t>@_gbarth homens de cabeça raspada faz elas mija guarana</t>
-  </si>
-  <si>
-    <t>@hastadlol os cara curte guaraná</t>
-  </si>
-  <si>
-    <t>ela pensou que era festa e era só bolinho sem guaraná ainda por cima kkkkkkkkkk toma trouxa cadê a tal da energia boa https://t.co/txrzyz8ojs</t>
-  </si>
-  <si>
-    <t>eu acho que cris rozeira é considerada maior artilheira das olimpíadas. e você? vota lá em @guarana. se é #coisadelas é #coisanossa.
-quem é a outra opção? nunca ouvi falar</t>
-  </si>
-  <si>
-    <t>rt @melbruu: se tem uma coisa que eu gosto de beber é guaraná natural pqp 🤤🤤🤤</t>
+    <t>meu cunhado fez um negócio de açaí com pó de guaraná e estou aqui ligadona e sem sono</t>
+  </si>
+  <si>
+    <t>@carolfaaaria @guhmoraais guarana ta la em 6 ou 7 lugar</t>
+  </si>
+  <si>
+    <t>@igorzismo os veios do guaraná aprontando todas.</t>
+  </si>
+  <si>
+    <t>nooo que vontade de tomar guaraná jesus 🙄🥺</t>
   </si>
   <si>
     <t>eu acho que marta é a pessoa que mais marcou gols vestindo a canarinha. e você? vota lá em @guarana. se é #coisadelas é #coisanossa.
 pena que nessa pais machista de merda, ela não foi reconhecida 😥</t>
   </si>
   <si>
-    <t>minha prima trazia do rj, eu achava q era tipo guaraná choco https://t.co/xeddtel5yg</t>
-  </si>
-  <si>
-    <t>tomo guarana, suco de caju, goiabada para sobremesaaaaa</t>
-  </si>
-  <si>
-    <t>hoje vai ser uma festaaaaa
-bolo e guaraná
-muito doce pra você
-é o seu aniversárioooooooo
-vamos festejar
-e os amigos recebeeeeeer https://t.co/72o3pxco1h</t>
-  </si>
-  <si>
-    <t>rt @pedrxcarvalho: eu estava obcecada passava 80% do meu tempo fazendo 😗✌🏽 e nos outros 20% eu torcia pra que alguém fizesse 😗✌🏽 pra eu pod…</t>
-  </si>
-  <si>
-    <t>@layanne_stela kkkkkkkkkkkkkkk ela é mt suja, vou beber o meu guaraná tbem, euhem 😂😂😂😂😂</t>
-  </si>
-  <si>
-    <t>to viciada em guaraná mix e agora mds ????</t>
-  </si>
-  <si>
-    <t>rt @giibatistaa: td q eu queria agora era um hambúrguer da bk e aquele refil de guaraná antárctica</t>
-  </si>
-  <si>
-    <t>mais um gaúcho conhecendo o melhor guaraná que existe 💁🏼‍♀️😅 https://t.co/rqrecjptcq</t>
-  </si>
-  <si>
-    <t>eu pago um suquinho de guaraná</t>
-  </si>
-  <si>
-    <t>queria tomar um guaraná da heineken</t>
-  </si>
-  <si>
-    <t>acabei voltando da distribuidora com 1 cocada, 2 torrone, 1 guarana e 3 carvao pra fumar mais uma sessão... minha saúde ta indo pro inferno</t>
-  </si>
-  <si>
-    <t>eu to sendo movida por estresse e pó de guaraná nos últimos dias</t>
-  </si>
-  <si>
-    <t>não resisto a um guaraná antártica 😋🤦</t>
-  </si>
-  <si>
-    <t>vocês falando de um tal de guaravita e eu querendo saber se vocês já tomaram o guaraná jesus, vão direto pro céu</t>
-  </si>
-  <si>
-    <t>@eicarolinds bolo e salgadinhos, eu levo o guaraná</t>
-  </si>
-  <si>
-    <t>quase 5h da manhã e eu c vontade de tomar guaraná 🤦🏻‍♀️ kkkkkkkkkkkk</t>
-  </si>
-  <si>
-    <t>rt @sants_mariah: "desbloqueia seu celular ai"</t>
-  </si>
-  <si>
-    <t>eu e uma mulher trouxe a msm pitchulinha pra almoçar e eu pensei q o meu sabor era o de guaraná e o dela era sukita só q eu acabei bebendo a dela fiquei muito triste quando percebi mas ela bebeu a minha e disse q era melhor hehehe</t>
-  </si>
-  <si>
-    <t>se tem uma coisa que eu gosto de beber é guaraná natural pqp 🤤🤤🤤</t>
-  </si>
-  <si>
-    <t>piei no angolano mandei vim o guaraná e dois biscoitos pra eu e a nay amassar</t>
-  </si>
-  <si>
-    <t>@rick_c99 guaraná e melhor</t>
-  </si>
-  <si>
-    <t>toma um guaraná, suco de caju goiabada para sobremesa!</t>
-  </si>
-  <si>
-    <t>@icaroanalises nescau
-guaraná
-tanto faz, não curto nenhum
-gosto do estilo dos dois
-nenhum
-guardiola
-paulo
-buffon
-churrasco
-mister</t>
-  </si>
-  <si>
-    <t>@givndutra é guaraná mas com nome diferente?</t>
-  </si>
-  <si>
-    <t>tava ha umas semanas sem beber nenhum refri e fui inventar de beber hoje um guaraná, vei não aguentei dar 2 goles que sensação horrível</t>
-  </si>
-  <si>
-    <t>o que eu não daria por um empadão e um guaraná agora</t>
-  </si>
-  <si>
-    <t>rt @yagoagain: gente????  https://t.co/kfqkd8ehqf</t>
-  </si>
-  <si>
-    <t>vai toma no cu canal da guaraná
-................./¯/)........(\¯\
-.............../¯ ./...........\. ¯\
-............./. . /.............. \ . .\
-......../´¯/' . '/´¯`•¸,....,•´¯`\' . '\´¯\
-..../' /. ./ . ./ . ./¯\../¯\. . \. . \. .\ '\
-..( . ( . ( . ( ¯ ./' . ')..(' . '\. ¯ ) .</t>
-  </si>
-  <si>
-    <t>eu e juliane com 6 anos na festa de familia falando que guaraná antártica era cerveja https://t.co/kidhovbuhm</t>
-  </si>
-  <si>
-    <t>a pessoa q come um hambúrguer c cheddar e um guaraná antárctica no café da manhã n quer guerra c ngm</t>
-  </si>
-  <si>
-    <t>encontrei um lanche c entrega gratis e a promoção do dia eh x-tudo + um guaraná</t>
-  </si>
-  <si>
-    <t>esse guaraná quente deve da uma sede... https://t.co/lkctcb6gzy</t>
-  </si>
-  <si>
-    <t>@jaquebe19 o melhor é você querendo fazer ele falar guaraná kkkkk</t>
-  </si>
-  <si>
-    <t>a grande rio vem de guaraná mesmo? https://t.co/w6cefsjjnf</t>
-  </si>
-  <si>
-    <t>lembrei de um sorvete de guarana q eu comi anteontem nodsa foi a pior coisa q eu ja tomei na minha vida juro</t>
-  </si>
-  <si>
-    <t>@jaiarafontes um de guaraná</t>
-  </si>
-  <si>
-    <t>thiago comprou um montão de coisa no domingo, já acabou tudo, até o guaraná kkkkkkkkkkkkkkkkkkk q ódio</t>
-  </si>
-  <si>
-    <t>só queria saber onde eu encontro o guaraná antártica 100% natural</t>
-  </si>
-  <si>
-    <t>rt @2michelenawana: desafio:
+    <t>@joao_hmbock com guaraná</t>
+  </si>
+  <si>
+    <t>@lovesurreax kjkjjkkkk eh guaraná com mais açúcar e melhor</t>
+  </si>
+  <si>
+    <t>não aguento mais tomar guaraná 🤮 fanta🤮</t>
+  </si>
+  <si>
+    <t>essa semana eu quero prova de resistência raiz viu boninho 
+14 nego dentro de um carro
+esfrega o esponjão
+pendura no guaraná antártica
+#bbb20 #redebbb</t>
+  </si>
+  <si>
+    <t>é logico que guaraná  é melhor  que coca plmd</t>
+  </si>
+  <si>
+    <t>desafio:
 cocacola  ou guaraná?
 doce ou salgado?
 açaí ou sorvete?
 chocolate ou flores?
 sol ou chuva?
-praia ou piscina?…</t>
-  </si>
-  <si>
-    <t>tomei guaraná e tô exatamente assim https://t.co/8tqwaxs7z2</t>
-  </si>
-  <si>
-    <t>@heyjhou eu acompanhava um cliente na seccional e havia uma reportagem urgente sobre um homicidio
-ela estava lá super profissional, porem me segredou que estava com ressaca e ofereci um guarana que ela prontamente aceitou
-gente bonissima</t>
-  </si>
-  <si>
-    <t>sou a mulher mais feliz comendo yakissoba e tomando guarana jesus</t>
-  </si>
-  <si>
-    <t>@2xminilyce aa guaraná não é mt bom, mas caso vc não tiver melhor amanhã, se ai onde vc mora tiver chá de boldo ajuda mt</t>
-  </si>
-  <si>
-    <t>guaraná antárctica   óbvio</t>
-  </si>
-  <si>
-    <t>rt @yesfee1: eu com 12 anos bebendo guaraná fingindo ser cerva</t>
-  </si>
-  <si>
-    <t>tomar esse guaraná da amazônia gelado esta sendo o auge dos auge</t>
-  </si>
-  <si>
-    <t>@marcusnsilva ahahaha...
-acho que até fazendo o guaraná aquela dupla vai arrebentar.</t>
-  </si>
-  <si>
-    <t>hoje vai ter uma festa
-bolo e guaraná muito doce pra você 
-é o seu aniversário vamos festejar e pro bayern vamos perder 
-@chelseafc</t>
-  </si>
-  <si>
-    <t>@guarana este é o melhor guaraná do mundo amo🥰🥰🥰</t>
-  </si>
-  <si>
-    <t>e se eu comesse um hamburgao com guarana agora https://t.co/pev1lu3902</t>
-  </si>
-  <si>
-    <t>essa semana eu quero prova de resistência raiz viu boninho 
-14 nego dentro de um carro
-esfrega o esponjão
-pendura no guaraná antártica
-#bbb20 #redebbb</t>
-  </si>
-  <si>
-    <t>metemos um kit de é boa com guaraná, tomar uma paulada e dormir aq</t>
+praia ou piscina?
+inverno ou verão?
+responda usando a tag
+hari merece respeito</t>
+  </si>
+  <si>
+    <t>minha chefe manda eu ir assistir treinamento, só pra comer pipoca e tomar guaraná 😂😂😂 melhor não tem ❤️</t>
+  </si>
+  <si>
+    <t>@anaclaraasousa_ banho gelado ou guaraná ralado</t>
   </si>
   <si>
     <t>rt @potterlov3: queria muito um estrogonofe de camarão e um guaraná antártica bem gelado.. deus prfvr tenha piedade de mim</t>
   </si>
   <si>
-    <t>libertadores 2020
-palmeiras estreia nesta terça (10) em casa na libertadores da américa contra o guaraní
-na noite desta terça-feira (10), o verdão faz seu primeiro jogo na arena, em são paulo. o adversário é o guaraní, do paraguai.
-https://t.co/nt3ukakvai
-#esportes #pnbonline</t>
-  </si>
-  <si>
-    <t>a cada 30 min pego um pouco de guaraná jesus q era p fim de semana</t>
-  </si>
-  <si>
-    <t>veja o novo refrigerante da guaraná antarctica sem açúcar e corantes https://t.co/y7sujfowch https://t.co/3duhazc4yr</t>
-  </si>
-  <si>
-    <t>debaixo do pé de guaraná apreciando a noite de hoje https://t.co/zxff9zwhvo</t>
-  </si>
-  <si>
-    <t>rt @emilly_uai: é logico que guaraná  é melhor  que coca plmd</t>
-  </si>
-  <si>
-    <t>@gabrielolivf me chama eu levo guarana e po</t>
-  </si>
-  <si>
-    <t>a única vontade é enrolar as duas pizza da nono picoli e comer tomando o guaraná q vem na promo</t>
-  </si>
-  <si>
-    <t>guarana zero de visual novo..... estranhei... mas ta lindinha de roupa nova! https://t.co/ltlaoxzmyw</t>
-  </si>
-  <si>
-    <t>deus, meu deus, pq eu como 10 coxinhas com guaraná e dps reclamo q to gorda?</t>
-  </si>
-  <si>
-    <t>guaraná antarctica, é melhor que coca-cola.</t>
-  </si>
-  <si>
-    <t>queria tomar um suco de guaraná</t>
-  </si>
-  <si>
-    <t>@joosepulveda2 grapette e guaraná coroa juntos é pedir pra morrer</t>
-  </si>
-  <si>
-    <t>alimente seu dragão 
-[10/3 01:14] ep ✨: e é com esse dinheiro que vou pagar seu xis
-[10/3 01:14] ep ✨: sua esfomeada 😂❤️
-[10/3 01:16] bru ❤️: e o guaraná n te faz
-[10/3 01:16] ep ✨: tu come demais pô</t>
-  </si>
-  <si>
-    <t>@red_ cavill já tá se preparando para as filmagens com a red: três copos de liquidificador cheios por dia com caracu, ovos, amendoim e guaraná em pó.</t>
-  </si>
-  <si>
-    <t>faltou só o guaraná, que sacooooo 😑</t>
-  </si>
-  <si>
-    <t>@lovesurreax kjkjjkkkk eh guaraná com mais açúcar e melhor</t>
-  </si>
-  <si>
-    <t>@uedroga eu troco por um coxinha + guaraná</t>
-  </si>
-  <si>
     <t>acho que não existe ngm mais apaixonada do que eu por convenção guaraná 😋😍❤️</t>
   </si>
   <si>
-    <t>quem votou q eu seria uma planta realmente não me conhece eu to brigando aqui por um guaraná eu em</t>
-  </si>
-  <si>
-    <t>crlh ryan fominha de guaraná</t>
-  </si>
-  <si>
-    <t>eu sei q todo mundo acha mas ninguém tem coragem pra falar ... suco de guaraná é bom pakas</t>
-  </si>
-  <si>
-    <t>ahhhh e o bar da curuzu na comandante assis? 
-puts era tudo pra mim. 
-me davam até salgadinho troféu e ks de guaraná</t>
-  </si>
-  <si>
-    <t>eu acho que formiga foi a única pessoa que participou de 7 copas do mundo. e você? vota lá em @guarana. se é #coisadelas é #coisanossa.</t>
-  </si>
-  <si>
-    <t>@ediisaantos primeiro, quem toma guaraná?????????¿¿¿</t>
-  </si>
-  <si>
-    <t>rt @minisalgadinhos: escolha qual combo deseja e faça já sua reserva para esta semana mesmo ou final de semana, onde atenderemos até doming…</t>
-  </si>
-  <si>
-    <t>ontem tava no hard e do nada ouvi um "nana do nana do guarana do ludovico" whaaaaat</t>
-  </si>
-  <si>
-    <t>a última vez que eu tomei café e po de guaraná eu não parava quieta, vamos ver né</t>
-  </si>
-  <si>
-    <t>meu cunhado fez um negócio de açaí com pó de guaraná e estou aqui ligadona e sem sono</t>
-  </si>
-  <si>
-    <t>bom dia meus amores e minhas amoras.tudo bem?tô querendo muito que o presidente jogue na mesa as provas que foi eleito no primeiro turno!!!vou até fazer um estoque de pipoca e guaraná,quero ver contorcionismo retórico que a esquerda vai fazer p tentar justificar. https://t.co/vk8tjt1hdz</t>
-  </si>
-  <si>
-    <t>@gi_almv @needy_y @anksko @foradeorbitaa @namgukoo n sei pq mas me lembrei demais do guaraná kkkkkkkkkkkkkkkkkkk</t>
-  </si>
-  <si>
-    <t>hoje eu vou sobreviver a base do ódio, café e pílula de guaraná</t>
-  </si>
-  <si>
-    <t>to quase indo la comprar um guaraná</t>
-  </si>
-  <si>
-    <t>cara, eu realmente espero não estar confundindo "gentileza" com "ela tem uma crush em mim", seria legal que ela chegasse em mim e falasse 
-"tenho uma crush em você, vamos sair tomar um guaraná antártica e comer um xis"</t>
-  </si>
-  <si>
-    <t>@samicabrita nunca fui muito chegada, mas hj teve gosto de melhor guaraná msm</t>
-  </si>
-  <si>
-    <t>botei meu guaraná no freezer e quase esqueço de pegar</t>
-  </si>
-  <si>
-    <t>@icaroanalises nesau x toddy = msm coisa
-guaraná x coca-cola = coca
-dc x marvel = marvel
-de bruyne x kross = de bruyne
-lula x bolsonaro = bolso
-guardiola x mourinho = guardiola
-paulo andrade x villani = agr vc me ferrou
-buffon x cassilia = buffon
-churas x lasanha = churras
-titi x jj = tite</t>
-  </si>
-  <si>
-    <t>um dos meninos que atendem aqui no parada mix, disse que eu sou a única cliente que toma guaraná antárctica  com uma rodela de limão, que sempre que alguém vai buscar lá dentro já sabem que eu to no estabelecimento kkkkk</t>
-  </si>
-  <si>
-    <t>rt @belacrvg07: pegar esse "bolinho e guaraná" da vivian semana que vem</t>
-  </si>
-  <si>
-    <t>@marciel24553957 @thelminha_assis acho que não, já que o açaí industrializado (creme de açaí) geralmente vem cheio de xarope de guaraná, ai as pessoas colocam um monte de doce por cima... já comi o puro, e realmente tem um gostinho de terra, mas nada que não de pra comer jskdkdk</t>
-  </si>
-  <si>
-    <t>rt @kccesx: eu lembrando que nunca vou arranjar alguém pra ficar agarradinho dia de sábado a noite assistindo filme no quarto com uma pizza…</t>
-  </si>
-  <si>
-    <t>@rafarosadas eu sou suco de manga/uva e refri sem gas de guaraná, nao fico sem amg
-não consigo gostar de agua com gas n vejo sentindoooooo</t>
-  </si>
-  <si>
-    <t>“tia me dá guaraná” 🥰🥰🥰</t>
-  </si>
-  <si>
-    <t>*bom dia amigos*
-*cardápio de terça feira*
-🥙 *costela com batata e agrião*
-🍖 *carne seca acebolada com aipim*
-🥗 *filé de frango a milanesa ou grelhado com fritas*
-🥙 *escondidinho de carne seca*
-💰💰💰 *r$12,00*
-*temos refrigerante de 2 lts*
-*com guaraná natural* https://t.co/bk2zaprecb</t>
-  </si>
-  <si>
-    <t>vontade de um guaraná geladinho puta merda</t>
-  </si>
-  <si>
-    <t>eu acho que marta é a pessoa que mais marcou gols vestindo a canarinha. e você? vota lá em @guarana. se é #coisadelas é #coisanossa. marta é a maior artilheira ❤❤❤</t>
-  </si>
-  <si>
-    <t>so trocar por coca ou guaraná 👍 https://t.co/xgiekcs2br</t>
-  </si>
-  <si>
-    <t>@igorzismo os veios do guaraná aprontando todas.</t>
-  </si>
-  <si>
-    <t>@kccabeyoo98 já pensou se ifood levasse batida de amendoim ou guaraná e entregasse pro daniel kkkkk</t>
-  </si>
-  <si>
-    <t>vou de base que amanhã eu tenho que lavar 2 ponto de ônibus, quem passar por vitória e me ver lavando os ponto pode deixa um guaraná lá em</t>
-  </si>
-  <si>
-    <t>o piá do meu lado começou a cantar dolly guaraná e agr eu to com essa praga na cabeça</t>
-  </si>
-  <si>
-    <t>o guaraná pode até ser 100% natural! já esse corpinho não me engana susaninha... https://t.co/syf7r1kiv6</t>
-  </si>
-  <si>
-    <t>@astronamaia nossa meu lanche era um pastel de queijo e kapo de chocolate ou nova skin de guaraná</t>
-  </si>
-  <si>
-    <t>5 bebidas para me conhecer
-1- gin
-2-askov de maracujá 
-3-guaraná antarctica 
-4-suco de abacaxi com hortelã 
-5- qualquer vodka https://t.co/dkbsp5rx3m</t>
-  </si>
-  <si>
-    <t>eu e dani combinamos de não tomar guaraná, mas tem uma garrafa de três litros na geladeira, vou chorar</t>
-  </si>
-  <si>
-    <t>@218_hopeworld @agustdvv aaaah eu já bebi guaraná com açaí quando fui ao rj, mas não gostei... tinha um gosto estranho</t>
-  </si>
-  <si>
-    <t>único refrigerante que me dá gatilho é o guaraná garoto q eu não posso ver q meu cerebro fica o próprio meme
-quelo beber refrigelante</t>
-  </si>
-  <si>
-    <t>adoro como a figurinha da maísa dando joinha tomando um guaraná serve pra tudo</t>
-  </si>
-  <si>
-    <t>tomei uma xicara de café puto de forte e um cp de guaraná extra e to lutando com meus olhos p fica aberto 😥</t>
-  </si>
-  <si>
-    <t>bebi porque achei que era guaraná 
-não https://t.co/xvjuy6oiwa</t>
-  </si>
-  <si>
-    <t>rt @bfrmarcelo: hahahaha eu amo esse piroca e vou defendê-lo 
-nana do nana do guaraná do ludovico</t>
-  </si>
-  <si>
-    <t>pepsi, coca-cola e guaraná antártica são os melhores refris da vida</t>
-  </si>
-  <si>
-    <t>estou quase apelando pro lado do energético ou pó de guaraná</t>
-  </si>
-  <si>
-    <t>queria almoçar uma saladinha da estação do guaraná ☹️</t>
-  </si>
-  <si>
-    <t>@caixeta_edmar @re_bovi26 to pensando aqui ....... minha tia não comprava isso p mim ,mas eu levava fandangos e guaraná 🤔</t>
-  </si>
-  <si>
-    <t>eu acho que cris rozeira é considerada maior artilheira das olimpíadas. e você? vota lá em @guarana. se é #coisadelas é #coisanossa.</t>
-  </si>
-  <si>
-    <t>eu acho que cris lenda rozeira é considerada maior artilheira das olimpíadas. e você? vota lá em @guarana. se é #coisadelas é #coisanossa.</t>
-  </si>
-  <si>
-    <t>rt @candeiakethlyn: guaraná é mt melhor q coca</t>
-  </si>
-  <si>
-    <t>tô com fome devido horário vai ser biscoito com guaraná msm pq comida ja perdi as contas de quantas vezes comi kkkk</t>
-  </si>
-  <si>
-    <t>aquela promo do guaraná antartica pequeno q vinham vários pokémons era simplesmente.......tudo</t>
-  </si>
-  <si>
-    <t>@givndutra aqui em sc tem pureza que é igual guaraná</t>
-  </si>
-  <si>
-    <t>@mavivalenza guaraná em pó, é bom, mas se vc trm problema no coração talvez seja um pouco arriscado</t>
-  </si>
-  <si>
-    <t>melhores bebidas do brasil: guaravita e guaraná jesus e sem choro https://t.co/cspq5zyrvs</t>
-  </si>
-  <si>
-    <t>qual o melhor guaraná nortista?</t>
-  </si>
-  <si>
-    <t>@lukasssid meti 3 burgao com 3 guaraná por 13,50 to feliz demais fi</t>
-  </si>
-  <si>
-    <t>rt @layanne_stela: @marcellicristi ela tá aqui na minha frente agr com um copo de guaraná</t>
-  </si>
-  <si>
-    <t>tomo guaraná! suco de caju! goiabada para sobremeeeeeeesaaaaaa!</t>
-  </si>
-  <si>
-    <t>td q eu queria agora era um hambúrguer da bk e aquele refil de guaraná antárctica</t>
-  </si>
-  <si>
-    <t>@danibarrichello aqui seria, 
-pizza &amp;amp;
-guaraná &amp;amp;
-picanha &amp;amp;
-cerveja &amp;amp;
-vai chorinthians...(sou corintiana q não sabe nem o nome do técnico e nem do goleiro....enfim) 
-aproveito pra pedir q torçam pelo audax. meu filho joga lá, no sub13 😃</t>
-  </si>
-  <si>
-    <t>tomei uma guaraná mix hoje, será q tem que tomar 20 pra fazer efeito</t>
-  </si>
-  <si>
-    <t>pq tem suco em pó de guaraná mas não tem suco de coca cola</t>
-  </si>
-  <si>
-    <t>@babs_costa tô tomando guaraná a uma semana, não fez efeito algum. tem que tomar a cafeína em cápsulas mesmo</t>
+    <t>@luanafernandesv @insta_acabar kkkkkkkkkkkkkkkkkkkkkkkk esses cria ai tudo fica doidao de suquinho e toddynho sem agitar as meninas mijam guarana na hora</t>
+  </si>
+  <si>
+    <t>alguém pelo amor de jesus, deus, jeová, buda, gandhi, heitor, guaraná, dolly citrus tem a merda de um corre de hash eu to uficnado esquizofrênico se eu não fomerowmrosd edpor faor.ix</t>
+  </si>
+  <si>
+    <t>ok fui influenciado a beber guaraná pelo canal coisa nossa 
+eu falhei contra o capitalismo amigos,
+eu falhei contra o capitalismo...</t>
   </si>
   <si>
     <t>[10/3 13:10] amanda araújo: parabéns meu amooor
@@ -966,249 +184,34 @@
 [10/3 13:18] ricardo araújo: vamos comer até entrar em coma diabético</t>
   </si>
   <si>
-    <t>[09/03/2020 23:36:47] kai: strogonoff
- [09/03/2020 23:36:49] kai: com coca
- [09/03/2020 23:36:56] irmão💕: n bebo guaraná
- [09/03/2020 23:37:03] kai: mas eu bebo</t>
-  </si>
-  <si>
-    <t>se gabi levar guaraná jesus pra mim eu vou ser a mulher mais feliz de planície</t>
-  </si>
-  <si>
-    <t>rt @hrmnyj: guaraná antartica é mil vezes melhor q coca.</t>
-  </si>
-  <si>
-    <t>sei q é foda achar quem não goste de cerveja, mas daí confundir meu guaraná com cerveja é um insulto a minha pessoa hahahaha deixa eu segundar em paz bruno porra 😂😂😂</t>
-  </si>
-  <si>
-    <t>sou do rj e vim dizer que o camp de uva é o melhor guarana https://t.co/gmcy2z4atg</t>
-  </si>
-  <si>
-    <t>rt @yngrid_crf23: a belle pediu p moça da padaria guarda o guaraná ontem q sobrou e agora passamos lá p beber kkkkkk</t>
-  </si>
-  <si>
-    <t>precisava de um guaraná agora</t>
-  </si>
-  <si>
-    <t>eu  que bebi o guaraná todo e coloquei a garrafa vazia na geladeira kkkkk🤦🏾‍♂️</t>
-  </si>
-  <si>
-    <t>pedi ela pra  comprar suco de açai com guaraná e ela me vem com laranja com mamão</t>
-  </si>
-  <si>
-    <t>a médica: nada de guaraná em mariana 
-eu as 5:00 da manhã: quelo gualana gelado</t>
-  </si>
-  <si>
-    <t>rt @profemichelle: bom dia meus amores e minhas amoras.tudo bem?tô querendo muito que o presidente jogue na mesa as provas que foi eleito n…</t>
-  </si>
-  <si>
-    <t>tomei uma cápsula de guaraná, espero que me ajude pq to quase falecendo real</t>
-  </si>
-  <si>
-    <t>não aguento mais tomar guaraná 🤮 fanta🤮</t>
-  </si>
-  <si>
-    <t>kkkkkkkkkkkk ele é demais, desse tamanho viciado guaraná https://t.co/vkp6j2sath</t>
-  </si>
-  <si>
-    <t>vei o guarana ta com gosto puro de skol ????????????????</t>
-  </si>
-  <si>
-    <t>rt @madeindewetria: eu e juliane com 6 anos na festa de familia falando que guaraná antártica era cerveja</t>
-  </si>
-  <si>
-    <t>eu tentando suprir minha vontade de comer açúcar tomando guaraná zero 
-odioooo</t>
-  </si>
-  <si>
-    <t>eu com 12 anos bebendo guaraná fingindo ser cerva https://t.co/l4xzl4u6jt</t>
-  </si>
-  <si>
-    <t>@4uexpbr faz uma listinha 
-pão de queijo 
-brigadeiro
-paçoca 
-guaraná</t>
-  </si>
-  <si>
-    <t>eu acho que marta rainha goat é a pessoa que mais marcou gols vestindo a canarinha. e você? vota lá em @guarana. se é #coisadelas é #coisanossa.</t>
-  </si>
-  <si>
-    <t>caralho eu amo guaraná cruzeiro</t>
-  </si>
-  <si>
-    <t>@ehdaora @giupanaro olha seu siso ai</t>
-  </si>
-  <si>
-    <t>q vontade louca de tomar um refri, um guaraná bem geladinho 🥺🤦‍♀️</t>
-  </si>
-  <si>
-    <t>quem inventou o guaraná kuat devia tá c mt ódio da população pqp q bag horrível</t>
-  </si>
-  <si>
-    <t>acordei e vim na cozinha beber guaraná, n vou deitar p essa tosse 🤬</t>
-  </si>
-  <si>
-    <t>pegar esse "bolinho e guaraná" da vivian semana que vem</t>
-  </si>
-  <si>
-    <t>dhay dhay trouxe pão é guaraná aqui na sala pra mim 🥰</t>
-  </si>
-  <si>
-    <t>@rhyangotico esto tomando guaraná com bolacha</t>
-  </si>
-  <si>
-    <t>5 bebidas pra me conhecer
-1- guaraná 
-2- malzbier
-3- vinho
-4- cerveja
-5- suco de melancia https://t.co/lbmgguasat</t>
-  </si>
-  <si>
-    <t>meu café da manhã hoje é um guaraná caçulinha e uma bolacha, estou sendo saudável desse jeito?</t>
-  </si>
-  <si>
-    <t>Teste</t>
-  </si>
-  <si>
-    <t>@waagfreeitas kkkkk guaraná do jovem</t>
-  </si>
-  <si>
-    <t>@joaomiguelbdb bicho eu penso isso mas com relação a colocar umas rodela de laranja no copo do guaraná</t>
-  </si>
-  <si>
-    <t>a belle pediu p moça da padaria guarda o guaraná ontem q sobrou e agora passamos lá p beber kkkkkk</t>
-  </si>
-  <si>
-    <t>조승연 posta foto que eu te dou churrasco e guarana</t>
-  </si>
-  <si>
-    <t>@calebesouzao @pedrotolhos @guarana por nada, sempre um prazer influenciar as pessoas a perderem tempo</t>
-  </si>
-  <si>
-    <t>@guarana @canellamatheus  @lucasinutilismo  com que resolve isso aqui?? https://t.co/rasqhoznql</t>
-  </si>
-  <si>
-    <t>minha pressao ta caindo mais que a paulinha do bbb 11 na prova do guaraná</t>
-  </si>
-  <si>
-    <t>@giupanaro @ehdaora vc nao ta mto longe disso, minha cria</t>
-  </si>
-  <si>
-    <t>rt @tiobooboodepre: ja teve quarto branco. confirmou q vai ter poder supremo.
-pra ser o melhor bbb de todos, soh falta a prova do guarana…</t>
-  </si>
-  <si>
-    <t>deusa abençoe o guaraná gelado com uma rodela de limão</t>
-  </si>
-  <si>
-    <t>acabei de colocar guaraná, café, energético e gelo no mesmo copo.
-eu me recuso a chamar de drink</t>
-  </si>
-  <si>
-    <t>rt @kmeirelles21: ela pensou que era festa e era só bolinho sem guaraná ainda por cima kkkkkkkkkk toma trouxa cadê a tal da energia boa</t>
-  </si>
-  <si>
-    <t>o que vale mais um guaraná fruki ou a minha vida?</t>
-  </si>
-  <si>
-    <t>@emy_wiki não é refrigerante, é tipo um refresco feito de guaraná só q com muuuuuuuuito açúcar</t>
-  </si>
-  <si>
-    <t>@victor_guarana @ehdaora kkkkkkkk tipo de piada que vc faz</t>
-  </si>
-  <si>
-    <t>bom dia alguém me dá eno guaraná</t>
-  </si>
-  <si>
-    <t>o auge eu e a minha irmã pegando as guaraná pra ficar explodindo</t>
-  </si>
-  <si>
-    <t>@_gabrielos só me chamar pro churras e me dar um copão de guaraná antartica que é pra sempre</t>
-  </si>
-  <si>
-    <t>dormi só 4h essa noite... só esse meio litro de guaraná natural pra ajudar</t>
-  </si>
-  <si>
-    <t>guaraná coroa melhor guaraná quem discorda é clubista</t>
-  </si>
-  <si>
-    <t>meu sonho de princesa é levar o boy pra experimentar guaraná lá da praça</t>
-  </si>
-  <si>
-    <t>refri de guarana é bom demais</t>
-  </si>
-  <si>
-    <t>[9/3 22:36] maninha: encomendei 1200 salgados e 400 docinhos, 1 bolo de 8 kl
-[9/3 22:38] maninha: 57 litros de cerveja, 64 litros de pepsi e falta 20 litros de guaraná
-[9/3 22:38] maninha: será q é exagero
-[9/3 23:09] marlon: quantas pessoas?
-[9/3 23:10] maninha: umas 60</t>
-  </si>
-  <si>
-    <t>como que eu vou parar de tomar refri se guaraná antártica é a melhor coisa já criada nesse mundo ?</t>
-  </si>
-  <si>
-    <t>rt @chelseadepre: hoje vai ter uma festa
-bolo e guaraná muito doce pra você 
-é o seu aniversário vamos festejar e pro bayern vamos perder…</t>
-  </si>
-  <si>
-    <t>minha folga vou rodar aquele centro atrás de pó de guaraná e bala de café, pq só isso vai me manter viva e a fé em deus</t>
-  </si>
-  <si>
-    <t>é o meu aniversário bolo guarana muito doce pra mim</t>
-  </si>
-  <si>
-    <t>@ellenbarcelloss opaaaaaaa, então fechou, leva o flexa guaraná kkkkkkkkkk</t>
-  </si>
-  <si>
-    <t>meu pai mandou 4 garrafas de guaraná jesus, como eu amooooo ❤️❤️❤️🥰</t>
-  </si>
-  <si>
-    <t>hoje do nda me deu uma vontade súbita de guaraná antárctica 
-matando a vontade</t>
-  </si>
-  <si>
-    <t>como assim as pessoas não reconhecem que fanta guaraná é o melhor guaraná? poxa minha gente, existem formas melhores de desperdiçar a sua única passagem pela terra.</t>
-  </si>
-  <si>
-    <t>quando eu vi, já tava lá comendo salgadinho, tomando guaraná, dançando com as coroas. foi bem bacana.</t>
-  </si>
-  <si>
-    <t>@urriwalgo é o seu aniversaaario doce e guaraná muitos n sei o que pra voceee</t>
-  </si>
-  <si>
-    <t>10: 40 da manha, acordar, tomar um café da manhã saudável com um guaraná e depois jogar uma aramzinha c meu amor, ahaaaaam</t>
-  </si>
-  <si>
-    <t>nescau;
-guaraná;
-dc; (me respeita)
-kroos;
-biruliro;
-pep guardiola;
-villani;
-casillas; (essa foi de fudê)
-churrasco;
-jj. https://t.co/k544zhtpmy</t>
-  </si>
-  <si>
-    <t>@maisa_thaila queria, vi um guaraná geladinho e fechado na geladeira nao aguentei</t>
-  </si>
-  <si>
-    <t>@biancatoure_ @joaopaulorlk kkkkkkkkkkkkkkkkk, guaraná era nossa breja</t>
-  </si>
-  <si>
-    <t>bom dia e vamos de guaraná ao invés de água logo cedo 🤪🥳</t>
-  </si>
-  <si>
-    <t>e a vitoria que comeu bisnaga cm doritos enqnt tomava yakult com guarana</t>
-  </si>
-  <si>
-    <t>comendo chocolate e bebendo guaraná 😊💛</t>
+    <t>fico imaginando como seria se esses cara passassem aqui nas ruas de itararé, nossa senhora as mina ia mijar guaraná https://t.co/aqjqtcmmbz</t>
+  </si>
+  <si>
+    <t>eu to com desejo de tomar dolly guaraná pode isso????</t>
+  </si>
+  <si>
+    <t>@layanne_stela kkkkkkkkkkkkkkk ela é mt suja, vou beber o meu guaraná tbem, euhem 😂😂😂😂😂</t>
+  </si>
+  <si>
+    <t>@rick_c99 guaraná e melhor</t>
+  </si>
+  <si>
+    <t>@manstupido assim que a gente descobre as pessoas que preferem garoto a guaraná antarctica</t>
+  </si>
+  <si>
+    <t>não deu tempo de comer em casa e eu tava na faculdade morrendo de fome e irritada com uns role, pois vitória saiu da casa dela de bike e apareceu aqui na frente com um pacote de lays, guaraná e um chocolatinho p mim 😭😭😭😭😭🥰🥰🥰🥰🥰🥰🥰🥰</t>
+  </si>
+  <si>
+    <t>@guarana este é o melhor guaraná do mundo amo🥰🥰🥰</t>
+  </si>
+  <si>
+    <t>crlh ryan fominha de guaraná</t>
+  </si>
+  <si>
+    <t>@adrielysalvad0r semana passada tomei um suco de guaraná,  quase choro. kk 8 anos sem refri e uma amnésia doida, como q eu pude esquecer do guaraná?</t>
+  </si>
+  <si>
+    <t>vou tomar um copo de guaraná e vou dormi</t>
   </si>
   <si>
     <t>coisas nada úteis sobre mim.
@@ -1224,34 +227,2300 @@
 bebida fav — guaraná https://t.co/cqeuamcu4n</t>
   </si>
   <si>
+    <t>ryan foi buscar refrigerante. 
+trouxe um copo de guaraná misturado com pepsi, na mesma hora eu falei o que ele tinha misturado e ele ficou com maior cara de "nossa, n deu certo." 
+pq essas crias acham que a gente nasceu ontem ??? kkkkk</t>
+  </si>
+  <si>
+    <t>n sei se eu to adaptado ou se meu corpo ta mais resistente, to tomando café e logo em seguido to bebendo guaraná pra da energia e n adianta em porra nenhuma.</t>
+  </si>
+  <si>
+    <t>nescau
+guaraná
+dc
+de bruyne
+lula 
+guardiola 
+paulo andrade
+buffon 
+churrasco 
+jorge jesus. https://t.co/wlq7q7mezt</t>
+  </si>
+  <si>
+    <t>@crf_crdrato22 mijei guaraná 😱</t>
+  </si>
+  <si>
+    <t>eu tentando suprir minha vontade de comer açúcar tomando guaraná zero 
+odioooo</t>
+  </si>
+  <si>
+    <t>@g_danim dica.... guaraná ralado e café</t>
+  </si>
+  <si>
+    <t>quem inventou o guaraná kuat devia tá c mt ódio da população pqp q bag horrível</t>
+  </si>
+  <si>
+    <t>tô com fome devido horário vai ser biscoito com guaraná msm pq comida ja perdi as contas de quantas vezes comi kkkk</t>
+  </si>
+  <si>
+    <t>@bicalhors né meu deus??? era o meu lanche da escola tots com guaraná antártica que vinha com uma pokébola 🤧</t>
+  </si>
+  <si>
+    <t>comendo chocolate e bebendo guaraná 😊💛</t>
+  </si>
+  <si>
+    <t>@danibarrichello aqui seria, 
+pizza &amp;amp;
+guaraná &amp;amp;
+picanha &amp;amp;
+cerveja &amp;amp;
+vai chorinthians...(sou corintiana q não sabe nem o nome do técnico e nem do goleiro....enfim) 
+aproveito pra pedir q torçam pelo audax. meu filho joga lá, no sub13 😃</t>
+  </si>
+  <si>
+    <t>rt @pedrxcarvalho: eu estava obcecada passava 80% do meu tempo fazendo 😗✌🏽 e nos outros 20% eu torcia pra que alguém fizesse 😗✌🏽 pra eu pod…</t>
+  </si>
+  <si>
+    <t>@marciel24553957 @thelminha_assis acho que não, já que o açaí industrializado (creme de açaí) geralmente vem cheio de xarope de guaraná, ai as pessoas colocam um monte de doce por cima... já comi o puro, e realmente tem um gostinho de terra, mas nada que não de pra comer jskdkdk</t>
+  </si>
+  <si>
+    <t>eu sou mt estranho por comer ovo cozido e bolo de chocolate com guaraná?</t>
+  </si>
+  <si>
+    <t>5 bebidas pra me conhecer
+1- guaraná 
+2- malzbier
+3- vinho
+4- cerveja
+5- suco de melancia https://t.co/lbmgguasat</t>
+  </si>
+  <si>
+    <t>guaraná em pó melhoro muito minha performance no treino</t>
+  </si>
+  <si>
+    <t>queria tomar um suco de guaraná</t>
+  </si>
+  <si>
+    <t>@letwmein ipioca guaraná + gema de ovo + sal</t>
+  </si>
+  <si>
+    <t>deram: bee
+sou: gees
+deram: muito fofo e engraçado
+sou: obrigado amei &amp;lt;3
+deram: 1,77?
+tenho: 1,85
+deram: goianinho guaraná
+sou: sim trabalho na ambev
+deram: 24
+tenho: 23
+não vo fazer de todo mundo pois tenho preguiça mas vamos</t>
+  </si>
+  <si>
+    <t>@calebesouzao @pedrotolhos @guarana por nada, sempre um prazer influenciar as pessoas a perderem tempo</t>
+  </si>
+  <si>
+    <t>quando eu vi, já tava lá comendo salgadinho, tomando guaraná, dançando com as coroas. foi bem bacana.</t>
+  </si>
+  <si>
+    <t>tava ha umas semanas sem beber nenhum refri e fui inventar de beber hoje um guaraná, vei não aguentei dar 2 goles que sensação horrível</t>
+  </si>
+  <si>
+    <t>quando eu penso naquela resenha do alpha eu só penso que o mal do jovem é misturar cerveja, whisky, 51 e vinho barato com grapete e guaraná coroa
+guaraná coroa, mano???
+vcs tão loucos???</t>
+  </si>
+  <si>
+    <t>@givndutra é guaraná?</t>
+  </si>
+  <si>
+    <t>guarana zero de visual novo..... estranhei... mas ta lindinha de roupa nova! https://t.co/ltlaoxzmyw</t>
+  </si>
+  <si>
+    <t>@hastadlol banana com guaraná</t>
+  </si>
+  <si>
+    <t>tentando estudar sem usar nada pra ficar acordada, mas estou falhando miseravelmente e vamos de energético e pó de guaraná</t>
+  </si>
+  <si>
+    <t>todo mundo sabe que strogonoff é com arroz batata palha e guaraná https://t.co/cakbx98q5a</t>
+  </si>
+  <si>
+    <t>caralho! como eu queria saber o contexto disso https://t.co/peq4dwqiio</t>
+  </si>
+  <si>
+    <t>a mina aqui no trampo tá comendo um salgado e um guaraná antártica 8:11 da manhã. não tô julgado, só um comentário. #mematem</t>
+  </si>
+  <si>
+    <t>@rafarosadas eu sou suco de manga/uva e refri sem gas de guaraná, nao fico sem amg
+não consigo gostar de agua com gas n vejo sentindoooooo</t>
+  </si>
+  <si>
+    <t>hoje vai ser uma festaaaaa
+bolo e guaraná
+muito doce pra você
+é o seu aniversárioooooooo
+vamos festejar
+e os amigos recebeeeeeer https://t.co/72o3pxco1h</t>
+  </si>
+  <si>
+    <t>mo vontade de toma uma sprite ou um guaraná antartica bem gelado</t>
+  </si>
+  <si>
+    <t>@icaroanalises nescau ou toddy? toddy 
+guaraná ou coca cola? guaraná
+dc ou marvel? dc
+de bruyne ou tonho kroos/kross? kroos
+lula ou bolsonaro? bolso
+guardiola ou mourinho? guardiola
+paulo andrade ou villani? villani 
+buffon ou casillas? buffon
+churrasco ou lasanha? churrasco
+tite ou jj? tite</t>
+  </si>
+  <si>
+    <t>eu acho que marta é a pessoa que mais marcou gols vestindo a canarinha. e você? vota lá em @guarana. se é #coisadelas é #coisanossa.i</t>
+  </si>
+  <si>
+    <t>to viciada em guaraná mix e agora mds ????</t>
+  </si>
+  <si>
+    <t>o que vale mais um guaraná fruki ou a minha vida?</t>
+  </si>
+  <si>
+    <t>acordei agr, abri a geladeira levaram as coca deixaram so os guaraná antártica 🙄🙄🙄🙄🤨</t>
+  </si>
+  <si>
+    <t>@hastadlol ja bebeu seu guarana hj?</t>
+  </si>
+  <si>
+    <t>eu acho que marta é a pessoa que mais marcou gols vestindo a canarinha. e você? vota lá em @guarana. se é #coisadelas é #coisanossa.</t>
+  </si>
+  <si>
+    <t>eu to com tanta vontade de tomar guarana poxa vida</t>
+  </si>
+  <si>
+    <t>@hastadlol algum lanche que veio errado junto com um guaraná certeza</t>
+  </si>
+  <si>
+    <t>qual o melhor guaraná nortista?</t>
+  </si>
+  <si>
+    <t>tomo guaraná, suco de caju, goiabada para sobremesa!</t>
+  </si>
+  <si>
+    <t>bom dia e vamos de guaraná ao invés de água logo cedo 🤪🥳</t>
+  </si>
+  <si>
+    <t>@blucca_ mãe ficava perdida no domingo a tarde, enquato nos tomava guaraná de garrafão de vidro, jogando uma sinuca vendo o pai joga bocha</t>
+  </si>
+  <si>
+    <t>torresmo com uma cervejinha ou um guaraná bem gelado = tudo</t>
+  </si>
+  <si>
+    <t>rt @2michelenawana: desafio:
+cocacola  ou guaraná?
+doce ou salgado?
+açaí ou sorvete?
+chocolate ou flores?
+sol ou chuva?
+praia ou piscina?…</t>
+  </si>
+  <si>
+    <t>rt @timmaiabot: tomo guaraná, suco de caju, goiabada para sobremesa!</t>
+  </si>
+  <si>
+    <t>rt @belacrvg07: pegar esse "bolinho e guaraná" da vivian semana que vem</t>
+  </si>
+  <si>
+    <t>rt @chelseadepre: hoje vai ter uma festa
+bolo e guaraná muito doce pra você 
+é o seu aniversário vamos festejar e pro bayern vamos perder…</t>
+  </si>
+  <si>
+    <t>guaraná tem gosto de pizza hut</t>
+  </si>
+  <si>
+    <t>rt @werleeylima: a vida é loka msm há uns anos atrás eu vi dum da uma facada em moska, e agora acabei de ver os dois junto marcando um salg…</t>
+  </si>
+  <si>
+    <t>rt @kccesx: eu lembrando que nunca vou arranjar alguém pra ficar agarradinho dia de sábado a noite assistindo filme no quarto com uma pizza…</t>
+  </si>
+  <si>
+    <t>vim da rua com sede de guaraná</t>
+  </si>
+  <si>
+    <t>@francofrito mds... tu é a segunda pessoa que diz que tbm sente gosto de sabão em pó na sukita. 😲
+eu senti gosto de refluxo/ácido do estômago no guaraná.
+mas no fim era só meu paladar morrendo aos poucos mesmo... tem dias que ele não funciona.</t>
+  </si>
+  <si>
+    <t>jesus, só queria saber se é possível ser coroinha e continuar na vida do corote e da guaraná</t>
+  </si>
+  <si>
+    <t>strogonoff com batata palha e guaraná tudo pra mim</t>
+  </si>
+  <si>
+    <t>eu acho que marta é a pessoa que mais marcou gols vestindo a canarinha. e você? vota lá em @guarana. se é #coisadelas é #coisanossa. #marta</t>
+  </si>
+  <si>
+    <t>a pessoa q come um hambúrguer c cheddar e um guaraná antárctica no café da manhã n quer guerra c ngm</t>
+  </si>
+  <si>
+    <t>só queria ir viajar de caminhão com o pai pra desestressar e toma uns guaraná jesus</t>
+  </si>
+  <si>
+    <t>mate com limão e guaraná da facul está aprovadissimo</t>
+  </si>
+  <si>
+    <t>@guarana @canellamatheus  @lucasinutilismo  com que resolve isso aqui?? https://t.co/rasqhoznql</t>
+  </si>
+  <si>
+    <t>rt @dudacesariocrf: @crf_crdrato22 mijei guaraná 😱</t>
+  </si>
+  <si>
+    <t>@icaroanalises nescau
+guaraná
+tanto faz, não curto nenhum
+gosto do estilo dos dois
+nenhum
+guardiola
+paulo
+buffon
+churrasco
+mister</t>
+  </si>
+  <si>
+    <t>@oliver_realofc porra coca é palha perto de guaraná</t>
+  </si>
+  <si>
+    <t>@lari_guarana caralho maluco, é surubão com mais de 50.000 pessoas slk</t>
+  </si>
+  <si>
+    <t>@henrytario @rolealeatorio kkkkkkkkkkkkkkk lansa, vai ficar esbelto d+ amor vo mija guaraná</t>
+  </si>
+  <si>
+    <t>@hastadlol guaraná ao molho de guaraná ksksksks</t>
+  </si>
+  <si>
+    <t>pedi ela pra  comprar suco de açai com guaraná e ela me vem com laranja com mamão</t>
+  </si>
+  <si>
+    <t>hoje vai ter uma festa
+bolo e guaraná muito doce pra você 
+é o seu aniversário vamos festejar e pro bayern vamos perder 
+@chelseafc</t>
+  </si>
+  <si>
+    <t>putz liguei o ppv do #bbb20 é tão falando de açaí com banana, morango, guaraná, leite em pó, mel... aff é uma ofensa para nós que somos paraense! o nosso máximo aqui, se não for o açaí sem nada só acompanhado de comida com farinha d’agua, é com açúcar e farinha de tapioca.🤦🏻‍♀️</t>
+  </si>
+  <si>
+    <t>minha pressao ta caindo mais que a paulinha do bbb 11 na prova do guaraná</t>
+  </si>
+  <si>
+    <t>suco de guaraná é tudo de bom ne</t>
+  </si>
+  <si>
+    <t>@louistharrye coca cola e guaraná ajudam a dissolver elas, nada cientificamente comprovado, mas resolvia pra mim.</t>
+  </si>
+  <si>
+    <t>hoje pedi pro meu vô me trazer uma pepsi ou um guaraná, ele me trouxe uma sukita</t>
+  </si>
+  <si>
+    <t>bom dia pessoal, hoje eu substitui uma xícara de café por uma colher de pó de guaraná. 
+10 minutos atrás eu tava morrendo com uma pequena aceleração. 
+1º dia de pó de guaraná e zero sonos. 
+acompanhem o diário</t>
+  </si>
+  <si>
+    <t>@waldo_ffc ainda bem que ele descobriu hoje, num dia em que a economia tá derretendo, o dólar tá cavalgando , a bolsa quebrando... selo " doly guaraná" de qualidade, abiguinhos...</t>
+  </si>
+  <si>
+    <t>pai chegou pra mim e falou: "bah já colocou água no guaraná? é que é muito doce essa coisa"</t>
+  </si>
+  <si>
+    <t>@piiece_of_peace @agustdvv açaí de banana e guarana eu gosto, mas me enjoa rápido pq fica mt doce pra mim
+eu gosto de morango ou maracuja que aí eu posso encher de complementos e não enjoa nunca ♥</t>
+  </si>
+  <si>
+    <t>eu: preciso emagrecer
+eu também: vou fazer esse miojo e cortar essa linguicinha ai vou por um guaraná pra não embuchar e ta pronto o ranguinho</t>
+  </si>
+  <si>
+    <t>aqui em casa poder ter guarana n eu bebo toda hora mais agua q e bom nadaaaa</t>
+  </si>
+  <si>
+    <t>queria almoçar uma saladinha da estação do guaraná ☹️</t>
+  </si>
+  <si>
+    <t>o auge eu e a minha irmã pegando as guaraná pra ficar explodindo</t>
+  </si>
+  <si>
+    <t>eu sou muito desastrada, deixei o guaraná cair todo em mim kkkkkkkk</t>
+  </si>
+  <si>
+    <t>se gabi levar guaraná jesus pra mim eu vou ser a mulher mais feliz de planície</t>
+  </si>
+  <si>
+    <t>guarana friburgo esta no meu top 3 de refrigerantes</t>
+  </si>
+  <si>
+    <t>@chickenjoao feliz aniversário irmao ❤️</t>
+  </si>
+  <si>
+    <t>segundo guaraná com açaí que eu tomo hoje e vamos de ficar acordada</t>
+  </si>
+  <si>
+    <t>ja teve quarto branco. confirmou q vai ter poder supremo.
+pra ser o melhor bbb de todos, soh falta a prova do guarana antarctica q a paulinha caia de cara toda hora.</t>
+  </si>
+  <si>
+    <t>rt @minisalgadinhos: escolha qual combo deseja e faça já sua reserva para esta semana mesmo ou final de semana, onde atenderemos até doming…</t>
+  </si>
+  <si>
+    <t>rt @melbruu: se tem uma coisa que eu gosto de beber é guaraná natural pqp 🤤🤤🤤</t>
+  </si>
+  <si>
+    <t>@guarana desculpe...mas não têm comparação, é por isso que o mundo está perdido.</t>
+  </si>
+  <si>
+    <t>mano uma menina q estudou no cia hoje em dia eh fisiculturista cara o tanto que ela tá forte ela pisava em mim e me achatava q nem latinha de guarana</t>
+  </si>
+  <si>
+    <t>@dkvg5235 e guaraná, muito doce pra você🎵😂</t>
+  </si>
+  <si>
+    <t>com pepsi, fardinhos de guaraná e sukita, me dei trabalho a fazer suco de abacaxi pra eu tomar pq suco de abacaxi é perfeito e bate tds as bebidas</t>
+  </si>
+  <si>
+    <t>acabei de comer um pedaço gigante de roscaaaaa, com um guaraná trincando, como diz eu mesmo; é pra isso que eu tomo chá seca barriga</t>
+  </si>
+  <si>
+    <t>eu e dani combinamos de não tomar guaraná, mas tem uma garrafa de três litros na geladeira, vou chorar</t>
+  </si>
+  <si>
+    <t>parei de tomar refri há mais de um ano (pq eu quis) e o sabor que eu mais sinto falta é o guaraná, mas agora lançaram o natu e eu preciso experimentar</t>
+  </si>
+  <si>
+    <t>@fuckuisa ai eu gosto de dolly me lembra o guaraná kkkkk</t>
+  </si>
+  <si>
+    <t>alguém me chama pra comer um pastel de queijo e tomar um guaraná nunca pedi nada</t>
+  </si>
+  <si>
+    <t>@ce_gusto64 @guarana @maiconkusterkkk @tioorochi @lucasinutilismo @canellamatheus @igorzismo @vito_palmito @defantediogo coisa nossa legal#canella</t>
+  </si>
+  <si>
+    <t>eu tô sentindo cheiro de guaraná desde a hora q acordei (???)</t>
+  </si>
+  <si>
+    <t>@lcarvalhors não irmã, guaraná jesus. 😂😂😂</t>
+  </si>
+  <si>
+    <t>@hastadlol cozinha um guarana</t>
+  </si>
+  <si>
+    <t>@btspublicity @bts_twt só acredito vendo</t>
+  </si>
+  <si>
+    <t>então meninas a dica do dia é não tomem muito guaraná em pó eu tomei hoje quase tive um treco parecia que tinha tomado bala xd</t>
+  </si>
+  <si>
+    <t>tomei guaraná jesus hoje e foi a primeira conquista da minha vida</t>
+  </si>
+  <si>
+    <t>a grande rio vem de guaraná mesmo? https://t.co/w6cefsjjnf</t>
+  </si>
+  <si>
+    <t>onde foi?
+1 - banco do carro
+2 - deitado no sofá de casa
+3 - rua de casa
+4 - na casa da gata
+5 - quadra de fut
+6 - escola 
+7 - em casa 
+8 - pro resto da vida
+9 - na lanchonete em guarulhos (bebi guaraná porque a coca não tava gelada no ponto certo)
+10 - sou casado</t>
+  </si>
+  <si>
+    <t>@kaiosilvacda vem com o guaraná</t>
+  </si>
+  <si>
+    <t>até hj eu espero as minhas, vou nem falar do meu guaraná da amazônia https://t.co/iqriiqdyom</t>
+  </si>
+  <si>
+    <t>guaraná antárctica   óbvio</t>
+  </si>
+  <si>
+    <t>bolo e guaraná gente https://t.co/6p7dedyihn</t>
+  </si>
+  <si>
+    <t>tempo que eu não sei oq é festa cm bolo e guaraná, vagabundo só quer sabe de brahma e voodk cm energético ainda surgi a ousadia fudeu</t>
+  </si>
+  <si>
+    <t>encontrei um lanche c entrega gratis e a promoção do dia eh x-tudo + um guaraná</t>
+  </si>
+  <si>
+    <t>tô perturbando o alan pra pagar o guaraná kkk</t>
+  </si>
+  <si>
+    <t>bom dia alguém me dá eno guaraná</t>
+  </si>
+  <si>
+    <t>piei no angolano mandei vim o guaraná e dois biscoitos pra eu e a nay amassar</t>
+  </si>
+  <si>
+    <t>eu quero ver pipoca pular, sou louco por pipoca e guaraná 😀
+comercial jingle do guaraná antarctica anos 90.
+https://t.co/kfxyv8xz6u</t>
+  </si>
+  <si>
+    <t>@oxikelvy @nathysantoos00 eu posso te mostrar mil vezes o prior pedindo desculpas e ferrando a pessoa.
+ele tem a estratégia de se limpar pra votos da casa e depois com paredão formado ele é o dolly guaraná seu melhor amiguinho
+ele armou isso tudo pro vh
+e ele tá se limpando na própria merda</t>
+  </si>
+  <si>
+    <t>vou me encher de biscoito e guaraná e depois vou comer minha torta.😍</t>
+  </si>
+  <si>
+    <t>acabei de quebrar meu dente mordendo uma latinha de guaraná</t>
+  </si>
+  <si>
+    <t>@viquenss quem mau caráter prefere guarana antártica?</t>
+  </si>
+  <si>
+    <t>e se eu comesse um hamburgao com guarana agora https://t.co/pev1lu3902</t>
+  </si>
+  <si>
+    <t>@calol18 vai ter bolo e guaraná?</t>
+  </si>
+  <si>
+    <t>rt @sants_mariah: "desbloqueia seu celular ai"</t>
+  </si>
+  <si>
+    <t>vontade de comer um italiano quentinho e tomar um refrigerante de guaraná</t>
+  </si>
+  <si>
+    <t>@lyviarocha__ kkkkk é quando o povo era viçiado em pó de guaraná! armaria!!</t>
+  </si>
+  <si>
+    <t>informações inúteis sobre mim que continuam sendo inúteis:
+idade: 16
+altura: 1,65m
+pé: 39
+signo: escorpião
+tatto: 0
+piercing: 0
+cor fav: roxo
+série fav: sense8, stranger things
+comida fav: 🍔
+álcool fav: cervejinha
+n alcoólico: guaraná e coca https://t.co/rozcosmz0b</t>
+  </si>
+  <si>
+    <t>tomando pelo menos 1l de guaraná por dia, vício do krai</t>
+  </si>
+  <si>
+    <t>alimente seu dragão 
+[10/3 01:14] ep ✨: e é com esse dinheiro que vou pagar seu xis
+[10/3 01:14] ep ✨: sua esfomeada 😂❤️
+[10/3 01:16] bru ❤️: e o guaraná n te faz
+[10/3 01:16] ep ✨: tu come demais pô</t>
+  </si>
+  <si>
+    <t>@felipeneto pra mim você é pior que guarana dolly.</t>
+  </si>
+  <si>
+    <t>rt @madeindewetria: eu e juliane com 6 anos na festa de familia falando que guaraná antártica era cerveja</t>
+  </si>
+  <si>
+    <t>kkkkkkkkkkkk ele é demais, desse tamanho viciado guaraná https://t.co/vkp6j2sath</t>
+  </si>
+  <si>
+    <t>charrua melhor guaraná quem discorda tá errado</t>
+  </si>
+  <si>
+    <t>rt @taehyungbrasii: #trad | um funcionário que trabalhou no vr game durante as filmagens do run bts falou sobre a experiência que é ver o t…</t>
+  </si>
+  <si>
+    <t>@chuckmcpe uai é o guaraná ou o carro skks</t>
+  </si>
+  <si>
+    <t>queria tomar um guaraná natural ou uma coca cola 😴</t>
+  </si>
+  <si>
+    <t>não me canso de dizer que o guaraná de minas gerais é o melhor que existe</t>
+  </si>
+  <si>
+    <t>meu café da manhã hoje é um guaraná caçulinha e uma bolacha, estou sendo saudável desse jeito?</t>
+  </si>
+  <si>
+    <t>@jaiarafontes um de guaraná</t>
+  </si>
+  <si>
+    <t>eu: puts meu estômago tá zoado
+eu também: lançando o pacotão de doritos ft. guaraná jesus 9:56 da noite</t>
+  </si>
+  <si>
+    <t>eu e meu pai bebendo cerveja e minha mae tomando guarana, jogo inverteu</t>
+  </si>
+  <si>
+    <t>prior inferno falou q tinha coca cola e o guaraná antarctica patrocina o bbb kkkkkkkk</t>
+  </si>
+  <si>
+    <t>seguimores, respondam essas perguntas!! vai pro meu tcc. 😂
+nescau ou toddy? 
+guaraná ou coca cola? 
+dc ou marvel? 
+de bruyne ou tonho kroos/kross? 
+lula ou bolsonaro? 
+guardiola ou mourinho? 
+paulo andrade ou villani?  
+buffon ou casillas? 
+churrasco ou lasanha?
+tite ou jj?</t>
+  </si>
+  <si>
+    <t>comprei um refrizinho p toma com minha janta quando chegasse d facul , tomei tava sem gás meio estranho aí descobri q minha mãe tomou e colocou suco de guarána dentro da garrafa</t>
+  </si>
+  <si>
+    <t>eu fui falar com meu amigo q tinha tomado uma capsula de guarana e acabei falando q tomei capsula de gasolina</t>
+  </si>
+  <si>
+    <t>조승연 posta foto que eu te dou churrasco e guarana</t>
+  </si>
+  <si>
+    <t>agr só vou ostentar c guaraná e água 😝💸</t>
+  </si>
+  <si>
+    <t>faltou só o guaraná, que sacooooo 😑</t>
+  </si>
+  <si>
+    <t>eu acho que pelé é a pessoa que mais marcou gols vestindo a canarinha. e você? vota lá em @guarana. se é #coisadelas é #coisanossa.</t>
+  </si>
+  <si>
     <t>nesse exato momento tomando guaraná 0kcal pq é a unica coisa com baixa caloria na cantina da facul (e o monster ta 15 conto)</t>
   </si>
   <si>
+    <t>@lukasssid meti 3 burgao com 3 guaraná por 13,50 to feliz demais fi</t>
+  </si>
+  <si>
+    <t>acabei de jantar um x tudo + batata + guaraná e de sobremesa um churros. queria tanto gostar de coisas saudáveis..</t>
+  </si>
+  <si>
+    <t>andreina me aconselhando: não trate como coca-cola quem te trata como dolly guaraná kkkkkkkkk</t>
+  </si>
+  <si>
+    <t>@victor_guarana @ehdaora kkkkkkkk tipo de piada que vc faz</t>
+  </si>
+  <si>
+    <t>a única vontade é enrolar as duas pizza da nono picoli e comer tomando o guaraná q vem na promo</t>
+  </si>
+  <si>
+    <t>matei minha vontade de comer estrogonofe com copao de guaraná antártica</t>
+  </si>
+  <si>
+    <t>@clairo_contrill @guarana meu sonho é casar com você😍😔🥺🤭🤭</t>
+  </si>
+  <si>
+    <t>minha prima trazia do rj, eu achava q era tipo guaraná choco https://t.co/xeddtel5yg</t>
+  </si>
+  <si>
+    <t>@cacatemartins ana clara você me surpreendeu vendo e comentando bbb
+encontro na final aqui em casa cm pipoca e guaraná</t>
+  </si>
+  <si>
+    <t>rt @lacristina__: so trocar por coca ou guaraná 👍</t>
+  </si>
+  <si>
+    <t>@radcurtain mas a de guaraná eu simplesmente odeio</t>
+  </si>
+  <si>
+    <t>ᵗᵒᵐᵒ ᵍᵘᵃʳᵃⁿᵃ ˢᵘᶜᵒ ᵈᵉ ᶜᵃʲᵘ ᵍᵒᶦᵃᵇᵃᵈᵃ ᵖᵃʳᵃ ˢᵒᵇʳᵉᵐᵉˢᵃ</t>
+  </si>
+  <si>
+    <t>itubaína: pense num refrigerante ruim da porra, sou mais o indaiá guaraná daqui</t>
+  </si>
+  <si>
+    <t>rt @rubinhoffc: guaraná kuat não é refrigerante, é remédio</t>
+  </si>
+  <si>
+    <t>n é possível q só eu gosto de água e guaraná quente... kkkk 🤷🏻‍♀️</t>
+  </si>
+  <si>
+    <t>@jaquebe19 o melhor é você querendo fazer ele falar guaraná kkkkk</t>
+  </si>
+  <si>
+    <t>@boninho seria tudooo, junto com a do guaraná antártica hahahaab https://t.co/dddx8bckmd</t>
+  </si>
+  <si>
+    <t>sou a mulher mais feliz comendo yakissoba e tomando guarana jesus</t>
+  </si>
+  <si>
+    <t>@zaelinhoh @yourixr @xetdaweb @statusdozap eu juro que ouvi essa mina falando "olha o guaraná!"</t>
+  </si>
+  <si>
+    <t>aliás, lá no rio eles têm esse negócio com xarope de guaraná né? tudo que é lugar vende guaravita, inclusive têm vários combos com esse xarope.</t>
+  </si>
+  <si>
+    <t>queria tomar uns 2 litros de guaraná jesus agr tlgd</t>
+  </si>
+  <si>
+    <t>bom dia meus amores e minhas amoras.tudo bem?tô querendo muito que o presidente jogue na mesa as provas que foi eleito no primeiro turno!!!vou até fazer um estoque de pipoca e guaraná,quero ver contorcionismo retórico que a esquerda vai fazer p tentar justificar. https://t.co/vk8tjt1hdz</t>
+  </si>
+  <si>
+    <t>alguem me da um guarana geladinho pod favir</t>
+  </si>
+  <si>
+    <t>@eicarolinds bolo e salgadinhos, eu levo o guaraná</t>
+  </si>
+  <si>
+    <t>tô tão tisti alguém me da dinheiro pra comprar guaraná?</t>
+  </si>
+  <si>
+    <t>coisas que combinam:
+pizza + guaraná
+pipoca + refrigerante
+hambúrguer + batata frita
+eu + você comendo tudo isso bb
+vai perder essa oportunidade?</t>
+  </si>
+  <si>
+    <t>eu acho que cris lenda rozeira é considerada maior artilheira das olimpíadas. e você? vota lá em @guarana. se é #coisadelas é #coisanossa.</t>
+  </si>
+  <si>
+    <t>@waagfreeitas kkkkk guaraná do jovem</t>
+  </si>
+  <si>
+    <t>teste mesmo é acertar a quantidade de suco/xarope de guaraná...
+se me pedir pra fazer um suco de caju eu saio correndo e gritando. https://t.co/pu7uo1ikva</t>
+  </si>
+  <si>
+    <t>o que eu não daria por um empadão e um guaraná agora</t>
+  </si>
+  <si>
+    <t>escolha qual combo deseja e faça já sua reserva para esta semana mesmo ou final de semana, onde atenderemos até domingo... 
+combo promocional, comprando 200 minis, você tem desconto e ainda ganha 1 guaraná antarctica 1,5l ou 20 bananinhas, uma das opções... https://t.co/ovidwjtgpw</t>
+  </si>
+  <si>
+    <t>a ciência que se diz tão avançada não inventou ainda uma água com textura e sabor de guaraná</t>
+  </si>
+  <si>
+    <t>eu e uma mulher trouxe a msm pitchulinha pra almoçar e eu pensei q o meu sabor era o de guaraná e o dela era sukita só q eu acabei bebendo a dela fiquei muito triste quando percebi mas ela bebeu a minha e disse q era melhor hehehe</t>
+  </si>
+  <si>
+    <t>rt @hemymarinhotnm1: @ellenbarcelloss opaaaaaaa, então fechou, leva o flexa guaraná kkkkkkkkkk</t>
+  </si>
+  <si>
+    <t>@manubragw @kxnaan @macacosarticosk tua participação foi tomar aqle ngc de guarana e me olhar estranho pq eu conheço as msc</t>
+  </si>
+  <si>
+    <t>to os dias pensando "ahhh senhor me ajudar a para de beber guaraná" ai minha mãe chega fazendo peixe, arroz fresco e uma coca. 😣😣😫😭</t>
+  </si>
+  <si>
+    <t>vontade de comer lasanha e beber guaraná 😩</t>
+  </si>
+  <si>
+    <t>@nishizinh4 mas é q assim totalmente nada a ver chamar os refri tudo de guaraná</t>
+  </si>
+  <si>
+    <t>@hastadlol burgue king com guaraná</t>
+  </si>
+  <si>
+    <t>tomei duas colheres de guaraná ralado diluída em água, vamo vê se agr faz efeito e a concentração aumenta</t>
+  </si>
+  <si>
+    <t>@giupanaro @ehdaora vc nao ta mto longe disso, minha cria</t>
+  </si>
+  <si>
+    <t>ontem n fui dormir mt bem e hoje tb n acordei legal... 09h da manhã eu comendo bolinho de queijo e mistinho cheio de ketchup c um guaraná bem geladinho, agora m sinto preparada p qualquer tombo da vida</t>
+  </si>
+  <si>
+    <t>rt @kmeirelles21: ela pensou que era festa e era só bolinho sem guaraná ainda por cima kkkkkkkkkk toma trouxa cadê a tal da energia boa</t>
+  </si>
+  <si>
+    <t>@givndutra aaa kkk jurei que era uma marca de guaraná</t>
+  </si>
+  <si>
+    <t>tomei 1l de chá né, aí to cm várias sensações esquisitas pq tem gengibre, pó de guaraná e tudo mais. é como se eu tivesse tomado vodka cm energético. to lok agitada eu em</t>
+  </si>
+  <si>
+    <t>rt @yagoagain: gente????  https://t.co/kfqkd8ehqf</t>
+  </si>
+  <si>
+    <t>@guarana enquete pra gerar brigas. desnecessário.</t>
+  </si>
+  <si>
+    <t>@aline0656 será que teu paladar tá morrendo mesmo? kuat guaraná tem gosto de lixo!
+refrigerante é ruim demais! quando fico mais de mês sem beber, é só tomar um gole que sinto gosto de morte</t>
+  </si>
+  <si>
+    <t>pq tem suco em pó de guaraná mas não tem suco de coca cola</t>
+  </si>
+  <si>
+    <t>dei biscoito, chocolate e guaraná pra melhor namorada desse mundo, mimo msm poxa</t>
+  </si>
+  <si>
+    <t>assistir locke e key comendo doritos e tomando guarana</t>
+  </si>
+  <si>
+    <t>bebendo pepsi pensando em guarana</t>
+  </si>
+  <si>
+    <t>@hastadlol investe na fábrica de guaraná na itália</t>
+  </si>
+  <si>
+    <t>meu pai mandou 4 garrafas de guaraná jesus, como eu amooooo ❤️❤️❤️🥰</t>
+  </si>
+  <si>
+    <t>tomei guaraná e tô exatamente assim https://t.co/8tqwaxs7z2</t>
+  </si>
+  <si>
+    <t>quase morri engasgada tomando pó de guaraná ou eu morro engasgada ou com o coração acelerado</t>
+  </si>
+  <si>
+    <t>meu amor levou comida pra mim no trampo hoje e ainda levou doce e guaraná mix pq eu tava estressada e sem energia querendo chorar ja e ele sabe como eu fico chata sem comer comida e doce, intimidade e tudo né preciso nem pedir so disse meus sintomas kkk</t>
+  </si>
+  <si>
+    <t>acabei voltando da distribuidora com 1 cocada, 2 torrone, 1 guarana e 3 carvao pra fumar mais uma sessão... minha saúde ta indo pro inferno</t>
+  </si>
+  <si>
+    <t>@hachiyarou força meninoooo
+faz chá mate com pó de guaraná ;u; pra boostar</t>
+  </si>
+  <si>
+    <t>@mavivalenza pó de guaraná</t>
+  </si>
+  <si>
+    <t>só queria saber onde eu encontro o guaraná antártica 100% natural</t>
+  </si>
+  <si>
+    <t>guaraná coroa melhor guaraná quem discorda é clubista</t>
+  </si>
+  <si>
+    <t>minhas preces foram ouvidas! agora só falta death stranding https://t.co/mtz2g21mmw</t>
+  </si>
+  <si>
+    <t>@mariaaaa_luiza @_mariapaulac @isaceratti e de lanche massinha embrulhada no papel metálico acompanhada de suco de pocotinho na garrafinha de guaraná</t>
+  </si>
+  <si>
+    <t>vai toma no cu canal da guaraná
+................./¯/)........(\¯\
+.............../¯ ./...........\. ¯\
+............./. . /.............. \ . .\
+......../´¯/' . '/´¯`•¸,....,•´¯`\' . '\´¯\
+..../' /. ./ . ./ . ./¯\../¯\. . \. . \. .\ '\
+..( . ( . ( . ( ¯ ./' . ')..(' . '\. ¯ ) .</t>
+  </si>
+  <si>
+    <t>@hazukiyoumi dog na chapa estaçao ac 8 reais + guarana em lata te amo</t>
+  </si>
+  <si>
+    <t>@priest_hell hmmmm, quando der, bora tomar um guaraná e comer um delicioso pão na chapa?</t>
+  </si>
+  <si>
+    <t>eu fico com um nervoso danado quando vejo aqueles vídeo do homem tirando o peixe da lama com guaraná e chiclete de mentos , que nervosooooo</t>
+  </si>
+  <si>
+    <t>@mltbysungg @melhortutorial bebi umas 4 lata de guarana seguida, to e m b r e a g a d o</t>
+  </si>
+  <si>
+    <t>@_vitoriaa003 😋😋😋 rola entt, e já compro a guaraná antártica tbm ?</t>
+  </si>
+  <si>
+    <t>coisas nada úteis sobre mim.
+alturaー 1,75 ?
+tamanho do pé—40
+signo—capricórnio
+tatuagensー0
+piercingー0
+cor favーcinza
+filme fav— brilho eterno de uma mente sem lembranças
+desenho fav— kiseijuu
+comida favーlasanha
+bebida fav— suco de guaraná https://t.co/cmacbqf88h</t>
+  </si>
+  <si>
+    <t>eu acho que zlatan ibrahimović foi a única pessoa que participou de 7 copas do mundo. e você? vota lá em @guarana. se é #coisadelas é #coisanossa.
+ibrahimovic participou da primeira edição, onipresente meu chapa</t>
+  </si>
+  <si>
+    <t>hahahaha eu amo esse piroca e vou defendê-lo 
+nana do nana do guaraná do ludovico https://t.co/vuy36clqcl</t>
+  </si>
+  <si>
+    <t>rt @pedraum_quejero: uma coca pfv
+com gelo e limão sr?
+um guarana pfv
+com gelo e laranja sr?
+uma spirte pfv
+com gelo e pessego sr?
+uma fant…</t>
+  </si>
+  <si>
+    <t>eu acho que marta é a pessoa que mais marcou gols vestindo a canarinha. e você? vota lá em @guarana. se é #coisadelas é #coisanossa. marta é a maior artilheira ❤❤❤</t>
+  </si>
+  <si>
+    <t>sei q é foda achar quem não goste de cerveja, mas daí confundir meu guaraná com cerveja é um insulto a minha pessoa hahahaha deixa eu segundar em paz bruno porra 😂😂😂</t>
+  </si>
+  <si>
+    <t>@banydeinert já 
+eu tava tomando guaraná uma vez, e meu pai cerveja. eu saí um pouco de perto e cheguei já bebendo... ele tinha trocado 🤡🤡🤡🤡</t>
+  </si>
+  <si>
+    <t>@hastadlol hambúrguer com guaraná?</t>
+  </si>
+  <si>
+    <t>né pussive q minha boca n tem direção certa mais, fui beber o guaraná e caiu tudo em mim man</t>
+  </si>
+  <si>
+    <t>eu e o galeote fomos fortes e em vez de parar na rita e tomar um litrao ns lançou uma guaraná 
+geração saúde</t>
+  </si>
+  <si>
+    <t>ontem tava no hard e do nada ouvi um "nana do nana do guarana do ludovico" whaaaaat</t>
+  </si>
+  <si>
+    <t>bebi porque achei que era guaraná 
+não https://t.co/xvjuy6oiwa</t>
+  </si>
+  <si>
+    <t>eu acho que pelé é a pessoa que mais marcou gols vestindo a canarinha. e você? se for outra resposta você está errado(a). @guarana. se é #coisadelas é #coisanossa.</t>
+  </si>
+  <si>
+    <t>@favoriteany é feito de guaraná mas não é refrigerante, tá mais para um refresco com muuuuuito açúcar</t>
+  </si>
+  <si>
+    <t>de quebra bebi um mini guaraná que muito provável que era das minhas sobrinhas e eu vou ouvir muito alguém falando que não era pra beber</t>
+  </si>
+  <si>
+    <t>queria muito um estrogonofe de camarão e um guaraná antártica bem gelado.. deus prfvr tenha piedade de mim</t>
+  </si>
+  <si>
+    <t>@icaroanalises toddy
+guarana
+nao sei escolher
+de bruyne
+lula
+guardiola
+paulo
+nao sei escolher
+sou vegetariano
+jj</t>
+  </si>
+  <si>
+    <t>@hastadlol hamburguer com tomate e alface com guaraná</t>
+  </si>
+  <si>
+    <t>@joaocostard só trocaria essa coca por um refrescante e delicioso guaraná antártica</t>
+  </si>
+  <si>
+    <t>@urryoonert guaraná aqui não é refrigerante, tá mais para um refresco com muuuuuito açúcar kkk</t>
+  </si>
+  <si>
+    <t>tô comendo um empadão de palmito com cheddar e uma guaraná bem gelado</t>
+  </si>
+  <si>
+    <t>tomar um guaraná gelado foi meu prazer do dia</t>
+  </si>
+  <si>
+    <t>@loretwgnr pó de guaraná</t>
+  </si>
+  <si>
+    <t>rt @leolima660: pensei q fossse uma foto dela e outra do guaraná kkk</t>
+  </si>
+  <si>
+    <t>bebi guaraná natural de uma barraquinha, agora o enjoo tá vindo kk</t>
+  </si>
+  <si>
+    <t>@ivsongomes1999 @sakatasanx @xetdaweb @tt_perolass 🎶 dolly guaraná o çabo brazilero🎶</t>
+  </si>
+  <si>
+    <t>@hastadlol oq tu vai comer eu n sei mas a certeza é que tu vai tomar um guaraná gostoso</t>
+  </si>
+  <si>
+    <t>tomei uma xicara de café puto de forte e um cp de guaraná extra e to lutando com meus olhos p fica aberto 😥</t>
+  </si>
+  <si>
+    <t>dei guaraná natural pra allana agora a criança esta no 220 😂😂😂😂</t>
+  </si>
+  <si>
+    <t>estou quase apelando pro lado do energético ou pó de guaraná</t>
+  </si>
+  <si>
+    <t>Teste</t>
+  </si>
+  <si>
+    <t>@btsfeel hoje vai ser uma festa
+bola e guaraná muito doce pra comer
+feliz aniversário anjinho :)
+https://t.co/mg4kmkotxs</t>
+  </si>
+  <si>
+    <t>toda hr bebo um copão de guaraná kkk garrafa ja ta no final 🤦‍♀️</t>
+  </si>
+  <si>
+    <t>pensei q fossse uma foto dela e outra do guaraná kkk https://t.co/nq3nvyg5qt</t>
+  </si>
+  <si>
+    <t>@pboiolosersx o video dele com a nienke no canal da guaraná vey</t>
+  </si>
+  <si>
+    <t>acordei e vim na cozinha beber guaraná, n vou deitar p essa tosse 🤬</t>
+  </si>
+  <si>
+    <t>mas com bepsi e guaraná</t>
+  </si>
+  <si>
+    <t>depois de 4 copos de guarana, genocidio nao parece tao errado assim</t>
+  </si>
+  <si>
+    <t>rt @_ana_moreiraa: guaraná de uva é vida</t>
+  </si>
+  <si>
+    <t>não resisto a um guaraná antártica 😋🤦</t>
+  </si>
+  <si>
+    <t>@sophia_bahiense oxente esse de guaraná é top, e vitamina c tbmm, você que é fresca</t>
+  </si>
+  <si>
+    <t>rt @layanne_stela: @marcellicristi ela tá aqui na minha frente agr com um copo de guaraná</t>
+  </si>
+  <si>
+    <t>@pedro_guarana daria um ótimo filme</t>
+  </si>
+  <si>
+    <t>rt @noiascoisadas: achorro  c https://t.co/ecnbp7ak3u</t>
+  </si>
+  <si>
+    <t>rt @trjde_bs155: agr só vou ostentar c guaraná e água 😝💸</t>
+  </si>
+  <si>
+    <t>rt @rendowmetw: eu tava vendo aquele canal lá da guaraná, especial de natal
+aí ai
+é https://t.co/dcef59udxo</t>
+  </si>
+  <si>
+    <t>@anthony_guarana @obqdc 30 conto, carai</t>
+  </si>
+  <si>
+    <t>eu tava com vontade de comer nikito ( com guaraná jesus , porém não posso tomar refrigerante) e encontrei aqui em peritoró hoje. eita mais é bom!</t>
+  </si>
+  <si>
+    <t>5 bebidas para me conhecer
+1- gin
+2-askov de maracujá 
+3-guaraná antarctica 
+4-suco de abacaxi com hortelã 
+5- qualquer vodka https://t.co/dkbsp5rx3m</t>
+  </si>
+  <si>
+    <t>@icaroanalises nescau
+guaraná 
+kroos
+nenhum 
+guardiola 
+paulo andrade 
+buffon 
+churrasco 
+tite</t>
+  </si>
+  <si>
+    <t>aquele guaraná em pó pra levantar a moral</t>
+  </si>
+  <si>
+    <t>informações inúteis sobre mim
+idade: 22
+altura: 1,60
+pé: 36
+signo: virgem
+olhos: castanho
+cabelo: preto
+tatto: 2
+piercing: 5
+cor fav: amarelo
+série fav: 11.22.63
+comida fav: macarrão
+álcool fav: vodka
+n alcoólico: guaraná https://t.co/b6vvl8y9zh</t>
+  </si>
+  <si>
+    <t>um vegano com seu guaraná sanadi não quer guerra com ninguém</t>
+  </si>
+  <si>
+    <t>@heyjhou eu acompanhava um cliente na seccional e havia uma reportagem urgente sobre um homicidio
+ela estava lá super profissional, porem me segredou que estava com ressaca e ofereci um guarana que ela prontamente aceitou
+gente bonissima</t>
+  </si>
+  <si>
+    <t>@palhaares_ sim ne amado, eu tomando guarana e vc xingando o volpi pq ele queria bafar...</t>
+  </si>
+  <si>
+    <t>o acreano q mora fora quando encontra qualquer projeto de açaí que nao tenha gosto de xarope de guaraná nao quer guerra com ninguem</t>
+  </si>
+  <si>
+    <t>@obqdc @anthony_guarana tá com moral?</t>
+  </si>
+  <si>
+    <t>vontade de um guaraná geladinho puta merda</t>
+  </si>
+  <si>
+    <t>@linharesjnr @redemassa hehehe.... e com guaraná brahma na mesa 👏👏👏</t>
+  </si>
+  <si>
+    <t>sim fiquei desenhando isso só pra me acalmar 
+@guarana me patrocina 🤘🏼❤ https://t.co/tbam4vrimx</t>
+  </si>
+  <si>
+    <t>@hastadlol arroz, feijão e guaraná</t>
+  </si>
+  <si>
+    <t>se alguém quiser me dar três esfihas de 4 queijos e um guaraná antártica eu aceito</t>
+  </si>
+  <si>
+    <t>@hastadlol mc com guaraná</t>
+  </si>
+  <si>
+    <t>renan perguntou se eu peguei guaraná falei que n ele perguntou se eu queria falei que sim, ele chamou a menina e pegou pra mim</t>
+  </si>
+  <si>
+    <t>rt @portellazzz: como que eu vou parar de tomar refri se guaraná antártica é a melhor coisa já criada nesse mundo ?</t>
+  </si>
+  <si>
+    <t>eu queria meu guaraná jesus e o esaú n guardou nada pra mim
+eu fiquei muito triste https://t.co/1iwjfs581i</t>
+  </si>
+  <si>
+    <t>lembrei de um sorvete de guarana q eu comi anteontem nodsa foi a pior coisa q eu ja tomei na minha vida juro</t>
+  </si>
+  <si>
+    <t>@givndutra nunca vi, é tipo guaraná? q</t>
+  </si>
+  <si>
+    <t>ou é sem base no tanto que eu sou apx por sprite e guaraná</t>
+  </si>
+  <si>
+    <t>rt @candeiakethlyn: guaraná é mt melhor q coca</t>
+  </si>
+  <si>
+    <t>pepsi, coca-cola e guaraná antártica são os melhores refris da vida</t>
+  </si>
+  <si>
+    <t>@4uexpbr faz uma listinha 
+pão de queijo 
+brigadeiro
+paçoca 
+guaraná</t>
+  </si>
+  <si>
+    <t>o guaraná pode até ser 100% natural! já esse corpinho não me engana susaninha... https://t.co/syf7r1kiv6</t>
+  </si>
+  <si>
+    <t>tudo que eu queria era aquele guaraná do amazonas que vende no bonarabe</t>
+  </si>
+  <si>
+    <t>enchi meu cu de pizza batata frita e guaraná</t>
+  </si>
+  <si>
+    <t>fui tomar um guaraná lembrei do rancho kkkk</t>
+  </si>
+  <si>
+    <t>vocês falando de um tal de guaravita e eu querendo saber se vocês já tomaram o guaraná jesus, vão direto pro céu</t>
+  </si>
+  <si>
+    <t>@hastadlol só faltou aparecer a propaganda da guarana</t>
+  </si>
+  <si>
+    <t>@carlosfreitaaas quero o guaraná</t>
+  </si>
+  <si>
+    <t>@santosppatricia não, guaraná!</t>
+  </si>
+  <si>
+    <t>vou atrasar pra tomar o guaraná jesus do esaú pq essa gente lota tudo os ônibus</t>
+  </si>
+  <si>
+    <t>nem tomando guaraná em pó meu sono passa... nunca vi igual 🤦‍♀️</t>
+  </si>
+  <si>
+    <t>rt @brvmxs: 10: 40 da manha, acordar, tomar um café da manhã saudável com um guaraná e depois jogar uma aramzinha c meu amor, ahaaaaam</t>
+  </si>
+  <si>
+    <t>vou ter q tomar pó de guaraná pra conseguir ler esse capítulo sem dormir em cima do livro</t>
+  </si>
+  <si>
+    <t>@vinimenn tá, vou levar mortadela e guaraná também</t>
+  </si>
+  <si>
+    <t>mas agr vou tomar cápsula de guaraná em pó, gratah pela dica priminho @vivszinho</t>
+  </si>
+  <si>
+    <t>meu deus como eu amava guaraná black não aceito que pararam de produzir</t>
+  </si>
+  <si>
+    <t>@tvpaticumbum  sr alex ,boa noite.será guaraná o enredo da grande rio?</t>
+  </si>
+  <si>
+    <t>10: 40 da manha, acordar, tomar um café da manhã saudável com um guaraná e depois jogar uma aramzinha c meu amor, ahaaaaam</t>
+  </si>
+  <si>
+    <t>saudades de tomar um guaraná da amazônia</t>
+  </si>
+  <si>
+    <t>@_gabrielos só me chamar pro churras e me dar um copão de guaraná antartica que é pra sempre</t>
+  </si>
+  <si>
+    <t>@juliaxz_ @sheikbola1 só toma guaraná com adossante</t>
+  </si>
+  <si>
+    <t>ela pensou que era festa e era só bolinho sem guaraná ainda por cima kkkkkkkkkk toma trouxa cadê a tal da energia boa https://t.co/txrzyz8ojs</t>
+  </si>
+  <si>
+    <t>rt @giibatistaa: td q eu queria agora era um hambúrguer da bk e aquele refil de guaraná antárctica</t>
+  </si>
+  <si>
+    <t>@icaroanalises nescau
+guaraná
+marvel!
+nenhum
+nenhum
+guardiola
+nenhum
+buffon
+churrasco
+nenhum</t>
+  </si>
+  <si>
+    <t>me lembrem que nunca mais tomar guaraná</t>
+  </si>
+  <si>
+    <t>eu fazendo guaraná é quase isso, ou é mt água ou é mt suco nunca acerto a medida 😔 https://t.co/b241maz9jf</t>
+  </si>
+  <si>
+    <t>deus, meu deus, pq eu como 10 coxinhas com guaraná e dps reclamo q to gorda?</t>
+  </si>
+  <si>
+    <t>@hastadlol burguer king completo sem ser mongol de tirar a salada, e um guaraná pra dar uma rebatida.</t>
+  </si>
+  <si>
+    <t>@hastadlol os cara curte guaraná</t>
+  </si>
+  <si>
+    <t>o doido da minha sala disse que ia batizar meu guaraná, e no final a cerveja caiu na minha calça e ele ficou rindo</t>
+  </si>
+  <si>
+    <t>@kccabeyoo98 já pensou se ifood levasse batida de amendoim ou guaraná e entregasse pro daniel kkkkk</t>
+  </si>
+  <si>
+    <t>@theosmachine omg achava que era homenagem ao guarana com sabor brasileiro</t>
+  </si>
+  <si>
+    <t>eu acho que formiga foi a única pessoa que participou de 7 copas do mundo. e você? vota lá em @guarana. se é #coisadelas é #coisanossa.
+#formiga</t>
+  </si>
+  <si>
+    <t>@caixeta_edmar @re_bovi26 to pensando aqui ....... minha tia não comprava isso p mim ,mas eu levava fandangos e guaraná 🤔</t>
+  </si>
+  <si>
+    <t>meu irmão me ligou pedindo pra eu soletrar "guaraná antarctica" e eu obviamente soletrei errado, porque como ele, eu não fazia a mínima ideia da existência desse c</t>
+  </si>
+  <si>
+    <t>toma um guaraná, suco de caju goiabada para sobremesa!</t>
+  </si>
+  <si>
+    <t>me confundi a bebida fav é guarana garoto com dois cubos de gelo https://t.co/yt5klh5nru</t>
+  </si>
+  <si>
+    <t>@icaroanalises nescau ou toddy? nescau
+guaraná ou coca cola? coca
+dc ou marvel? dc
+de bruyne ou tonho kroos/kross? de bruninho 
+lula ou bolsonaro? a morte
+guardiola ou mourinho? pep
+paulo andrade ou villani?  villani
+buffon ou casillas? buffon
+churrasco ou lasanha? churras
+tite ou jj? jj</t>
+  </si>
+  <si>
+    <t>charrua eh mto melhor q fruki guarana</t>
+  </si>
+  <si>
+    <t>guaraná de uva é vida</t>
+  </si>
+  <si>
+    <t>@emy_wiki não é refrigerante, é tipo um refresco feito de guaraná só q com muuuuuuuuito açúcar</t>
+  </si>
+  <si>
+    <t>rt @bfrmarcelo: hahahaha eu amo esse piroca e vou defendê-lo 
+nana do nana do guaraná do ludovico</t>
+  </si>
+  <si>
+    <t>eu acho que marta é a pessoa que mais marcou gols vestindo a canarinho. e você? vota lá em @guarana. se é #coisadelas é #coisanossa.</t>
+  </si>
+  <si>
+    <t>@givndutra aqui em sc tem pureza que é igual guaraná</t>
+  </si>
+  <si>
+    <t>minha folga vou rodar aquele centro atrás de pó de guaraná e bala de café, pq só isso vai me manter viva e a fé em deus</t>
+  </si>
+  <si>
+    <t>eu acho que formiga é a atleta com recorde de idade a participar de uma copa do mundo. e você? vota lá em @guarana. se é #coisadelas é #coisanossa.</t>
+  </si>
+  <si>
+    <t>@thisyd_ @guarana e o meu é casar com você😔😎😍❤️</t>
+  </si>
+  <si>
+    <t>@icaroanalises toddy.
+coca-cola, mesmo guaraná sendo mais gostoso.
+marvel.
+de bruyne, mesmo o kroos sendo muito maior que ele.
+nenhum?
+guardiola.
+paulo andrade.
+buffon.
+churrasco.
+tite.</t>
+  </si>
+  <si>
+    <t>@vittorz @carolserra__ guaraná é bom tb, mas cê tá bravo?</t>
+  </si>
+  <si>
+    <t>agora é que eu quero ver
+quem vai te levar pra lanchar
+coxinha, esfirra e pastel
+e dividir o guaraná 🎶</t>
+  </si>
+  <si>
+    <t>@roizgiulia tbm, só que com uma batata frita e guaraná ❤️</t>
+  </si>
+  <si>
+    <t>@icaroanalises nescau
+guaraná 
+marvel
+de bruyne
+nenhum
+guardiola
+paulo andrade
+buffon 
+churrasco
+mister</t>
+  </si>
+  <si>
+    <t>@yuri_coreia33 @maluquinha_jr kkkkkkkkkkkk "to doidão de guarana"</t>
+  </si>
+  <si>
+    <t>meu último beijo certamente foi em 1900 e guaraná de rolha</t>
+  </si>
+  <si>
+    <t>guaraná antártica 
+brasileiro - 🇧🇷
+genuíno 
+-nada há melhor , com gelo e limão 🍋 https://t.co/t32hbz1dw3</t>
+  </si>
+  <si>
+    <t>@xulialberti n tem sentido nenhum 
+coca= guaraná 
+fanta= guaraná 
+sprite= guaraná</t>
+  </si>
+  <si>
+    <t>metemos um kit de é boa com guaraná, tomar uma paulada e dormir aq</t>
+  </si>
+  <si>
+    <t>rt @sensestae: taehyung 🐯: o presente mais valioso que eu já recebi é o army. mesmo que eu renasça, não acho que eu possa receber nenhum pr…</t>
+  </si>
+  <si>
+    <t>@icaroanalises nescau
+guaraná
+marvel
+de bruyne
+nenhum dos dois
+guardiola
+villani
+buffon
+churrasco
+jj</t>
+  </si>
+  <si>
+    <t>enfim comprei guaraná jesus, descobrirei em breve o gosto disso</t>
+  </si>
+  <si>
+    <t>[9/3 22:36] maninha: encomendei 1200 salgados e 400 docinhos, 1 bolo de 8 kl
+[9/3 22:38] maninha: 57 litros de cerveja, 64 litros de pepsi e falta 20 litros de guaraná
+[9/3 22:38] maninha: será q é exagero
+[9/3 23:09] marlon: quantas pessoas?
+[9/3 23:10] maninha: umas 60</t>
+  </si>
+  <si>
+    <t>caindo de sono e tem faculdade ainda alguém me arruma 12 comprimido de pó de guaraná e dois energético de 500ml faz favor 😞</t>
+  </si>
+  <si>
+    <t>tomei uma cápsula de guaraná, espero que me ajude pq to quase falecendo real</t>
+  </si>
+  <si>
+    <t>só bolinha de queijo, guaraná e chocolate pra me fazer feliz hj... lá vou eu gastar dinheiro na facul</t>
+  </si>
+  <si>
+    <t>nescau 
+guaraná 
+já fui mais interessado, mas dc
+de bruyne
+cabo daciolo 
+guardiola 
+villani 
+casillas (gosto pessoal)
+churrasco
+jj https://t.co/ibqplymnk9</t>
+  </si>
+  <si>
+    <t>comi um cachorro quente tão bom agr pqp queria mais, até ganhei um copinho de guarana gratis da vendedora super amorzinho</t>
+  </si>
+  <si>
+    <t>a médica: nada de guaraná em mariana 
+eu as 5:00 da manhã: quelo gualana gelado</t>
+  </si>
+  <si>
+    <t>@marcusnsilva ahahaha...
+acho que até fazendo o guaraná aquela dupla vai arrebentar.</t>
+  </si>
+  <si>
+    <t>guaraná antarctica, é melhor que coca-cola.</t>
+  </si>
+  <si>
+    <t>@rhyangotico esto tomando guaraná com bolacha</t>
+  </si>
+  <si>
+    <t>@218_hopeworld @agustdvv aaaah eu já bebi guaraná com açaí quando fui ao rj, mas não gostei... tinha um gosto estranho</t>
+  </si>
+  <si>
+    <t>@givndutra é tipo guaraná?</t>
+  </si>
+  <si>
+    <t>@celsomon é aquele guaraná orgânico? é bem gostoso</t>
+  </si>
+  <si>
+    <t>@pqsumiram eu tava assistindo o 7x1 tomando esse guarana</t>
+  </si>
+  <si>
+    <t>@ediisaantos primeiro, quem toma guaraná?????????¿¿¿</t>
+  </si>
+  <si>
+    <t>eu com 12 anos bebendo guaraná fingindo ser cerva https://t.co/l4xzl4u6jt</t>
+  </si>
+  <si>
+    <t>nenhum dos 2
+guarana
+dc 
+de bruyne 
+lula ou 
+guardiola 
+paulo andrade 
+buffon 
+churrasco 
+tite https://t.co/dfb46vytbt</t>
+  </si>
+  <si>
+    <t>@guileitaooo @eddusoaress tu come todo dia um e vem com essa. bora guaraná amanhã</t>
+  </si>
+  <si>
+    <t>fui tomar pó de guaraná achando que tinha gosto de tang, quando fui ver era só a terra</t>
+  </si>
+  <si>
+    <t>nescau;
+guaraná;
+dc; (me respeita)
+kroos;
+biruliro;
+pep guardiola;
+villani;
+casillas; (essa foi de fudê)
+churrasco;
+jj. https://t.co/k544zhtpmy</t>
+  </si>
+  <si>
+    <t>sedenta por um copo de guaraná</t>
+  </si>
+  <si>
+    <t>rt @emilly_uai: é logico que guaraná  é melhor  que coca plmd</t>
+  </si>
+  <si>
+    <t>queria tomar um guaraná da heineken</t>
+  </si>
+  <si>
+    <t>rt @profemichelle: bom dia meus amores e minhas amoras.tudo bem?tô querendo muito que o presidente jogue na mesa as provas que foi eleito n…</t>
+  </si>
+  <si>
+    <t>sai p comprar um bolo e um guarana com açai p ver se acordo 🥺</t>
+  </si>
+  <si>
+    <t>minha janta tá sendo pão de queijo e guaraná kkkkkkkkkk</t>
+  </si>
+  <si>
+    <t>eu acho que formiga foi a única pessoa que participou de 7 copas do mundo. e você? vota lá em @guarana. se é #coisadelas é #coisanossa.</t>
+  </si>
+  <si>
+    <t>a última vez que eu tomei café e po de guaraná eu não parava quieta, vamos ver né</t>
+  </si>
+  <si>
+    <t>eu acho que pelé é a pessoa que mais marcou gols vestindo a canarinha. e você? vota lá em @guarana. se é #coisadelas é #coisanossa.9</t>
+  </si>
+  <si>
+    <t>5 bebidas para me conhecer:
+1- h20 limoneto
+2- guaraná cruzeiro  
+3- água gelada
+4- chá de pêssego 
+5- suco de maçã integral https://t.co/0kh4mbhalo</t>
+  </si>
+  <si>
+    <t>eu tomando um guarana agr dps de resumir um video de 40minutos p droga da escola https://t.co/jy2hgfau8l</t>
+  </si>
+  <si>
+    <t>só tomei café com adoçante hj, mas minha amiga me deu um copo de guaraná convenção no almoço</t>
+  </si>
+  <si>
+    <t>almoço saudável + copão de guarana</t>
+  </si>
+  <si>
+    <t>eu te amo, guaraná antarctica</t>
+  </si>
+  <si>
+    <t>tomar esse guaraná da amazônia gelado esta sendo o auge dos auge</t>
+  </si>
+  <si>
+    <t>pó de guaraná</t>
+  </si>
+  <si>
+    <t>hoje eu vou sobreviver a base do ódio, café e pílula de guaraná</t>
+  </si>
+  <si>
+    <t>mano, dois fds sem beber, pretendo sair esse e curtir só no guaraná</t>
+  </si>
+  <si>
+    <t>@soulthatblooms guaraná em pó me lembra de um dia @hiankrug</t>
+  </si>
+  <si>
+    <t>rt @_raissamartinss: cavg
+bolo de pote 
+brigadeiro: r$4,00 ou r$3,00
+coco: r$4,00 ou r$3,00
+bombom: r$4,00 
+refrigerante (guaraná ou peps…</t>
+  </si>
+  <si>
+    <t>@resenhaporco palmeiras 4 x 1 guaraná</t>
+  </si>
+  <si>
+    <t>@domconstantino projeto meu pro futuro</t>
+  </si>
+  <si>
+    <t>*bom dia amigos*
+*cardápio de terça feira*
+🥙 *costela com batata e agrião*
+🍖 *carne seca acebolada com aipim*
+🥗 *filé de frango a milanesa ou grelhado com fritas*
+🥙 *escondidinho de carne seca*
+💰💰💰 *r$12,00*
+*temos refrigerante de 2 lts*
+*com guaraná natural* https://t.co/bk2zaprecb</t>
+  </si>
+  <si>
+    <t>vei o guarana ta com gosto puro de skol ????????????????</t>
+  </si>
+  <si>
+    <t>caraca mane, que desejo absurdo que eu to de tomar um guaraná antártica geladin</t>
+  </si>
+  <si>
+    <t>é o meu aniversário bolo guarana muito doce pra mim</t>
+  </si>
+  <si>
+    <t>[10/3 14:03] jullão👭💖: porra pprt vou ter q te levar pra comer 7 hambúrguers do mc + batata e guarana
+[10/3 14:04] eduarda: que issooooo
+[10/3 14:04] eduarda: q moralll
+[10/3 14:06] jullão👭💖: espere
+[10/3 14:06] jullão👭💖: e veras
+tem melhor q ela?</t>
+  </si>
+  <si>
+    <t>uma lata de guaraná explodiu a minha frente 😭 agr tenho a farda quase toda molhada</t>
+  </si>
+  <si>
+    <t>@ellenbarcelloss opaaaaaaa, então fechou, leva o flexa guaraná kkkkkkkkkk</t>
+  </si>
+  <si>
+    <t>@caioluzr @jowgrocha feijão do setorial 3 parece reboco
+sinto saudades do suco rosa, amarelo e o de "guaraná"(encher a garrafinha).</t>
+  </si>
+  <si>
+    <t>@ttalitamiranda toma logo um chá de guaraná misturado com energético</t>
+  </si>
+  <si>
+    <t>“tá bebendo guaraná e tá pegando ela” lima, luan. (@luan_lima94)</t>
+  </si>
+  <si>
+    <t>@hastadlol hoje vem guaraná denovo</t>
+  </si>
+  <si>
+    <t>@maisa_thaila queria, vi um guaraná geladinho e fechado na geladeira nao aguentei</t>
+  </si>
+  <si>
+    <t>suzana vieira passando pela sua timeline como garota propaganda do novo @guarana antarctica natu! https://t.co/dmhdshp44z</t>
+  </si>
+  <si>
+    <t>nescau
+guaraná 
+dc
+de bruyne 
+nenhum dos dois serve
+guardiola
+paulo andrade
+buffon 
+churrasco 
+tite https://t.co/vnz82pbvn6</t>
+  </si>
+  <si>
+    <t>eu tava vendo aquele canal lá da guaraná, especial de natal
+aí ai
+é https://t.co/dcef59udxo</t>
+  </si>
+  <si>
+    <t>@guarana jogou 7 e não ganhou nenhuma https://t.co/dkyoexp7rz</t>
+  </si>
+  <si>
+    <t>eu  que bebi o guaraná todo e coloquei a garrafa vazia na geladeira kkkkk🤦🏾‍♂️</t>
+  </si>
+  <si>
+    <t>@seu_lima99 dois pipoteca e uma tubaina de guaraná e a gnt fecha</t>
+  </si>
+  <si>
+    <t>@biancavas_ ypioca guaraná fez mais por mim quando corote nem ao menos tentou!</t>
+  </si>
+  <si>
+    <t>bom dia pra vc que já levou seu "guaraná" da manhã...</t>
+  </si>
+  <si>
+    <t>eu preciso de um guaraná jesus..</t>
+  </si>
+  <si>
+    <t>@givndutra é guaraná mas com nome diferente?</t>
+  </si>
+  <si>
+    <t>@urriwalgo é o seu aniversaaario doce e guaraná muitos n sei o que pra voceee</t>
+  </si>
+  <si>
+    <t>a vida é loka msm há uns anos atrás eu vi dum da uma facada em moska, e agora acabei de ver os dois junto marcando um salgadinho com uma guaraná antártica</t>
+  </si>
+  <si>
+    <t>@icaroanalises toddy
+guaraná
+marvel pq tem o homem aranha
+de bruyne
+os dois no inferno
+guardiola pq não gosto de retranca
+villani
+buffon
+churrasco
+tite porém #foratite</t>
+  </si>
+  <si>
+    <t>@xetdaweb @statusdozap então vamos cantar: dolly guaraná o melhor https://t.co/pono4wd2un</t>
+  </si>
+  <si>
+    <t>@joosepulveda2 grapette e guaraná coroa juntos é pedir pra morrer</t>
+  </si>
+  <si>
+    <t>@lyssiariquieri_ to com a mesma vontade!! só que de bebida eu prefiro um suco com leite ou um guaraná 😅🙇🏾‍♂️🙍🏾‍♂️</t>
+  </si>
+  <si>
+    <t>tomo guaraná! suco de caju! goiabada para sobremeeeeeeesaaaaaa!</t>
+  </si>
+  <si>
+    <t>cara, eu realmente espero não estar confundindo "gentileza" com "ela tem uma crush em mim", seria legal que ela chegasse em mim e falasse 
+"tenho uma crush em você, vamos sair tomar um guaraná antártica e comer um xis"</t>
+  </si>
+  <si>
+    <t>@2xminilyce aa guaraná não é mt bom, mas caso vc não tiver melhor amanhã, se ai onde vc mora tiver chá de boldo ajuda mt</t>
+  </si>
+  <si>
+    <t>macarrão + guaraná = tudo pra mim</t>
+  </si>
+  <si>
+    <t>gnt o angelo n se valoriza tava ligando pro boy do guaraná pra saber onde ele tá</t>
+  </si>
+  <si>
+    <t>@isa_barbosas15 sério??? ah, o guaraná tbm n faz o efeito q eu esperava, mas já ajuda um pouquinho, só a ritalina q eu ainda n tomei</t>
+  </si>
+  <si>
+    <t>@aidenj0estar tipo minha tia que chama até água mineral de guaraná</t>
+  </si>
+  <si>
+    <t>tá certo que eu prefiro guaraná mas eu to bebendo uma coca bem geladinha 🤩</t>
+  </si>
+  <si>
+    <t>@ana_coment @stitchesns @luagess @thelminha_assis aqui é cheio de guaraná, imagino q o natural deve ser totalmente diferente e &amp;gt;&amp;gt;&amp;gt;&amp;gt;&amp;gt;</t>
+  </si>
+  <si>
+    <t>@hastadlol e a bebida, vai ser guaraná?</t>
+  </si>
+  <si>
+    <t>@icaroanalises nescau 
+guaraná 
+já fui mais interessado, mas dc
+de bruyne
+cabo daciolo 
+guardiola 
+villani 
+casillas (gosto pessoal)
+churrasco
+jj</t>
+  </si>
+  <si>
+    <t>eu acho que zlatan ibrahimović foi a única pessoa que participou de 7 copas do mundo. e você? vota lá em @guarana. se é #coisadelas é #coisanossa.</t>
+  </si>
+  <si>
+    <t>"existem pessoas que amam guaraná eu por exemplo tenho uma tatuagem disso" "tatuagem do guaraná? serio" "não óbvio que não" eu lembrando que tenho a tatuagem do vinho</t>
+  </si>
+  <si>
+    <t>@moreiranatalia_ falei pra xande a vontade que me deu de beber um guaraná 😭</t>
+  </si>
+  <si>
+    <t>amanhã vou gastar todo meu dinheiro com drogas. das mais pesadas. sem dó nem piedade. bolo de chocolate, guaraná da amazônia, milkshake, sunday vo ficar lokona</t>
+  </si>
+  <si>
+    <t>projeto #bemestar a vencetex apoia! #equipe #guarana https://t.co/1b64i81et1</t>
+  </si>
+  <si>
+    <t>@quiel027 @obqdc me falta o capital kkkkkkkkkkkkkkkkk</t>
+  </si>
+  <si>
+    <t>ypióca guaraná patrocina essa galera pra mais um rolê astral desses https://t.co/ekd3acwnge</t>
+  </si>
+  <si>
+    <t>eu topo dividir um guarana na praça brasil</t>
+  </si>
+  <si>
+    <t>amanhã vou trabalhar só o pito. vou botar pó de guaraná na vitamina pra tentar diminuir os efeitos das festas e praias dos últimos dias. :~~</t>
+  </si>
+  <si>
+    <t>até agora sem acreditar que no rio eles adoçam o açaí com xarope de guaraná?????? égua, fica ruim demais.</t>
+  </si>
+  <si>
+    <t>esse guaraná quente deve da uma sede... https://t.co/lkctcb6gzy</t>
+  </si>
+  <si>
+    <t>@starkov_alina sigo com meu bolo e guaraná</t>
+  </si>
+  <si>
+    <t>eu sei q todo mundo acha mas ninguém tem coragem pra falar ... suco de guaraná é bom pakas</t>
+  </si>
+  <si>
+    <t>@mavivalenza guaraná em pó, é bom, mas se vc trm problema no coração talvez seja um pouco arriscado</t>
+  </si>
+  <si>
+    <t>nois bebe eh guaraná nois bebe eh guaraná cachaça deixa nois doido e faz a gente brigar</t>
+  </si>
+  <si>
+    <t>meu sonho de princesa é levar o boy pra experimentar guaraná lá da praça</t>
+  </si>
+  <si>
+    <t>@marcosquezado1 opa! programão, ein?! vou acompanhar com pipoca e guaraná. mas esses militontos tem mudado de placa e cores... mesmo q extintos, o eleitor tem que aprender a escolher, e a apuração dos votos tem que ser idônea.</t>
+  </si>
+  <si>
+    <t>rt @crvgdanni: pó de guaraná e amendoim, hoje eu tô afim de caprichar</t>
+  </si>
+  <si>
+    <t>rt @mhventura77: @myynfreiitas voltava do cairu gritando, quebrando banco, bebendo 51 com guaraná e aturando a paulinha bêbada e quer recla…</t>
+  </si>
+  <si>
+    <t>@icaroanalises nesau x toddy = msm coisa
+guaraná x coca-cola = coca
+dc x marvel = marvel
+de bruyne x kross = de bruyne
+lula x bolsonaro = bolso
+guardiola x mourinho = guardiola
+paulo andrade x villani = agr vc me ferrou
+buffon x cassilia = buffon
+churas x lasanha = churras
+titi x jj = tite</t>
+  </si>
+  <si>
+    <t>@littlesacra trás guaraná jesus pa nós</t>
+  </si>
+  <si>
+    <t>eu e juliane com 6 anos na festa de familia falando que guaraná antártica era cerveja https://t.co/kidhovbuhm</t>
+  </si>
+  <si>
+    <t>@guarana marta joga outro esporte.</t>
+  </si>
+  <si>
+    <t>to doida pra provar esse guaraná que é com ingredientes 100% naturais, parece ser uma delícia 🤤</t>
+  </si>
+  <si>
+    <t>ahhhh e o bar da curuzu na comandante assis? 
+puts era tudo pra mim. 
+me davam até salgadinho troféu e ks de guaraná</t>
+  </si>
+  <si>
+    <t>@latinslmj é feito de guaraná porém não é um refrigerante, acho q tá mais para um refresco com muuuuuito açúcar kkk</t>
+  </si>
+  <si>
+    <t>eu pago um suquinho de guaraná</t>
+  </si>
+  <si>
+    <t>vou comprar um guaraná</t>
+  </si>
+  <si>
+    <t>o piá do meu lado começou a cantar dolly guaraná e agr eu to com essa praga na cabeça</t>
+  </si>
+  <si>
+    <t>adoro como a figurinha da maísa dando joinha tomando um guaraná serve pra tudo</t>
+  </si>
+  <si>
+    <t>acabei de colocar guaraná, café, energético e gelo no mesmo copo.
+eu me recuso a chamar de drink</t>
+  </si>
+  <si>
+    <t>eu acho que cris rozeira é considerada maior artilheira das olimpíadas pq esse fracassado n consegue chegar em quase nenhuma final com seleção, q dirá ser artilheiro. e você? vota lá em @guarana. se é #coisadelas é #coisanossa.</t>
+  </si>
+  <si>
+    <t>rt @nathalia_tonon: tem um morador de rua q meu chefe paga para ajudar aqui. hj ele chegou pra mim e mostrou q havia comprado um guaraná co…</t>
+  </si>
+  <si>
+    <t>tomando guaraná sem gás pq meu corpo viciado em açúcar necessita</t>
+  </si>
+  <si>
+    <t>caralho eu amo guaraná cruzeiro</t>
+  </si>
+  <si>
+    <t>@brendayrs tem algumas versões, talvez tenha uma com guaraná ou taurina que dê uma gás a mais durante o dia</t>
+  </si>
+  <si>
+    <t>@_nabrisa vc gosta de pepsi twist???? n gosto de fanta guarana outros refris sem ser de cola
+e tbm só gosto de coca e pepsi</t>
+  </si>
+  <si>
+    <t>eu sobre procurar guaraná jesus aqui em sp https://t.co/tngsmifbpa</t>
+  </si>
+  <si>
+    <t>deusa abençoe o guaraná gelado com uma rodela de limão</t>
+  </si>
+  <si>
+    <t>e eu que saí de casa pra ir no mercado pq tava babando por um mancha pulmão de guaraná</t>
+  </si>
+  <si>
+    <t>@icaroanalises nescau
+guaraná
+marvel
+kdb
+levy fidelix
+guardirola
+paulo andrade (essa foi a mais difícil)
+buffon
+churrasco
+jj</t>
+  </si>
+  <si>
+    <t>kkkkkkkkkkkkkkkkkkkkkkk eu qnd era menor e fingia que guaraná era cerveja https://t.co/c2y8yrfybr</t>
+  </si>
+  <si>
+    <t>nada que eu ame mais que guarana natural</t>
+  </si>
+  <si>
+    <t>comer meu pastel cm guarana q eu ganho mais</t>
+  </si>
+  <si>
+    <t>@uedroga eu troco por um coxinha + guaraná</t>
+  </si>
+  <si>
+    <t>vo cobra todo mundo que curtir isso aq 
+eu só bebo guaraná parcero</t>
+  </si>
+  <si>
+    <t>eu to ficando louco ou tem fanta guaraná retornavel nos mercado?</t>
+  </si>
+  <si>
+    <t>@_pedronapa o two feet vai fazer show no lolla, todo mundo vai fazer sexo em publico pelo visto ou bater umazinha https://t.co/hx65egp6cz</t>
+  </si>
+  <si>
+    <t>tomei uma guaraná mix hoje, será q tem que tomar 20 pra fazer efeito</t>
+  </si>
+  <si>
+    <t>rt @paoquitasaborl1: @cocacola_br @pabllovittar prefiro guaraná antártica</t>
+  </si>
+  <si>
+    <t>@alvesemillyyyy_ vou chamar as mina de kisuco de guaraná</t>
+  </si>
+  <si>
+    <t>so trocar por coca ou guaraná 👍 https://t.co/xgiekcs2br</t>
+  </si>
+  <si>
+    <t>diminuí o guaraná p poder beber mais água, agora não tô bebendo nenhum dos dois kkkkkk 🤦🏽‍♀️</t>
+  </si>
+  <si>
+    <t>tudo que era necessário pra mim nesse momento é um xis salada com fritas e um guaraná grandão</t>
+  </si>
+  <si>
+    <t>a segunda feira já foi quase todo volume de trabalho concentrado num dia só. hoje eu já acordei tomando meu shot de limão adicionado de guaraná em pó e catei a cápsula mais forte de café que já passou por essa casa. agora só falta um guindaste me levantar porque tá foda...</t>
+  </si>
+  <si>
+    <t>nescau (tomo até hj)
+guaraná
+os dois 
+kdb
+o lixo é mais útil
+pep
+paulo(me passa mais emoção)
+casillas 
+churrasco
+tite (qm pede jj na seleção pode se internar)</t>
+  </si>
+  <si>
+    <t>eu acho que cris rozeira é considerada maior artilheira das olimpíadas. e você? vota lá em @guarana. se é #coisadelas é #coisanossa.</t>
+  </si>
+  <si>
+    <t>@ehdaora @giupanaro olha seu siso ai</t>
+  </si>
+  <si>
+    <t>quando eu era criança eu bebia suco daqueles xaropes de groselha, de guaraná, eu achava tão gostoso. a gente cresce e vira um adulto ranzinza que nada tem mais gosto como época da infância.</t>
+  </si>
+  <si>
+    <t>@jenipatzlaff mano sim kkkkk parece guaraná quando for ver já era</t>
+  </si>
+  <si>
+    <t>rt @yngrid_crf23: a belle pediu p moça da padaria guarda o guaraná ontem q sobrou e agora passamos lá p beber kkkkkk</t>
+  </si>
+  <si>
+    <t>rt @sulcideluk: charrua melhor guaraná quem discorda tá errado</t>
+  </si>
+  <si>
+    <t>fico em choque qnd vejo essas notícia de gente morrendo por causa de energético slc eu faço pior boto guaraná em pó no energético e bebo, mas ao msm tempo fico me sentindo o brabo por fazer essas doidera e o coração aguentar suave</t>
+  </si>
+  <si>
+    <t>quero um guaraná</t>
+  </si>
+  <si>
     <t>aí que vontade de tomar um guaraná 🤤</t>
   </si>
   <si>
-    <t>@felipeneto pra mim você é pior que guarana dolly.</t>
-  </si>
-  <si>
-    <t>queria tomar um guaraná natural ou uma coca cola 😴</t>
-  </si>
-  <si>
-    <t>@theosmachine omg achava que era homenagem ao guarana com sabor brasileiro</t>
+    <t>brasil porracaralhooooo chupa meu cu cheio de guarana</t>
+  </si>
+  <si>
+    <t>dormi só 4h essa noite... só esse meio litro de guaraná natural pra ajudar</t>
+  </si>
+  <si>
+    <t>ainda sobre hidratantes, pra quem tem pele oleosa e não gosta de passar creme e etc, esse sorbet da panvel é bom e barato. ele tem uma consistência mais gel, esse de guaraná tem um cheiro incrível e hidrata bem. não indico pro pé pq ele é mais suave. https://t.co/djzofzaqq5</t>
+  </si>
+  <si>
+    <t>cheguei do funcional tomei um copo de guaraná e comi morango c leite condensado é isso aí foco</t>
+  </si>
+  <si>
+    <t>@gabrielolivf me chama eu levo guarana e po</t>
+  </si>
+  <si>
+    <t>quase 5h da manhã e eu c vontade de tomar guaraná 🤦🏻‍♀️ kkkkkkkkkkkk</t>
+  </si>
+  <si>
+    <t>eu tô só a minha mãe que saiu pra comprar carne moída pra fazer macarrão, e guaraná, só porque thaynara está aqui. 🙄</t>
+  </si>
+  <si>
+    <t>que guarana ruim é esse kuat gosto de remédio purinho, ainda me sobra varios dele... 😣🤮</t>
+  </si>
+  <si>
+    <t>deus protege meu estômago...comi um hambúrguer hoje com bastante queijo, batata frita e guaraná</t>
+  </si>
+  <si>
+    <t>@sakatasanx @xetdaweb @tt_perolass 🎵dolly🎶
+🎶dolly guaraná, dolly🎶
+(o melhor!)</t>
+  </si>
+  <si>
+    <t>dhay dhay trouxe pão é guaraná aqui na sala pra mim 🥰</t>
+  </si>
+  <si>
+    <t>libertadores 2020
+palmeiras estreia nesta terça (10) em casa na libertadores da américa contra o guaraní
+na noite desta terça-feira (10), o verdão faz seu primeiro jogo na arena, em são paulo. o adversário é o guaraní, do paraguai.
+https://t.co/nt3ukakvai
+#esportes #pnbonline</t>
+  </si>
+  <si>
+    <t>tomando suco de guaraná imaginando que é kit, boa noite</t>
+  </si>
+  <si>
+    <t>@hastadlol agora da pra ir comprar um guaraná com estilo e velocidade! 
+hauaha brincadeira boludao, lindo dms esse ai em</t>
+  </si>
+  <si>
+    <t>pó de guaraná e amendoim, hoje eu tô afim de caprichar</t>
   </si>
   <si>
     <t>como forma de demonstração de amor e piedade alguém podia me dar guaraná ralado já q o meu acabou e eu n to conseguindo achar saporra pra comprar, né? 😭</t>
   </si>
   <si>
-    <t>bebi guaraná natural de uma barraquinha, agora o enjoo tá vindo kk</t>
-  </si>
-  <si>
-    <t>@mavivalenza pó de guaraná</t>
-  </si>
-  <si>
-    <t>tomei pó de guaraná e ele me deu mais sono, daqui a pouco vou fazer uma carrerinha e cheirar ele</t>
-  </si>
-  <si>
-    <t>@starkov_alina sigo com meu bolo e guaraná</t>
+    <t>debaixo do pé de guaraná apreciando a noite de hoje https://t.co/zxff9zwhvo</t>
+  </si>
+  <si>
+    <t>@radcurtain meu deus amo esse guaraná</t>
+  </si>
+  <si>
+    <t>anti querendo me intimar, mas tu bebeu guaraná cerebral bunda mole 😂</t>
+  </si>
+  <si>
+    <t>com um guaraná ia ser top</t>
+  </si>
+  <si>
+    <t>@raposinhanina importante é ser amada 😊 eu chamo a frida de guaraná kuat 😂😂😂 (??!)</t>
+  </si>
+  <si>
+    <t>rt @yesfee1: eu com 12 anos bebendo guaraná fingindo ser cerva</t>
+  </si>
+  <si>
+    <t>@samicabrita nunca fui muito chegada, mas hj teve gosto de melhor guaraná msm</t>
+  </si>
+  <si>
+    <t>@alanadelrei red bull café e pó de guaraná</t>
+  </si>
+  <si>
+    <t>tomei cápsula de guaraná, café e agora comprei outra parada pra dar energia, o cansaço meu pai...</t>
+  </si>
+  <si>
+    <t>precisava de um guaraná agora</t>
+  </si>
+  <si>
+    <t>@garciasales @vittorguidoni me lembra um pouco cheiro de guaraná</t>
+  </si>
+  <si>
+    <t>pegar esse "bolinho e guaraná" da vivian semana que vem</t>
+  </si>
+  <si>
+    <t>@starbockys hoje 
+vai ser 
+uma festa
+bolo e guaraná 
+muito doce pra voceeê
+é o seu aniversário 
+vamos festejar e os amigos receber</t>
+  </si>
+  <si>
+    <t>eu: filho quer suco?
+ele: não mãe, "anuna". (guaraná) https://t.co/o2dn2hzvbi</t>
+  </si>
+  <si>
+    <t>tava tomando guaraná e não tava matando a minha sede fui lá pegar uma coca kkkkk,aí deu</t>
+  </si>
+  <si>
+    <t>@linharesjnr @redemassa siiim.... as vezes usavam para sukita e guaraná.... 😜😜😁😁</t>
+  </si>
+  <si>
+    <t>tomo guarana, suco de caju, goiabada para sobremesaaaaa</t>
+  </si>
+  <si>
+    <t>@guarana para de apoiar rodeio pra eu poder te consumir 
+veganos agradecem</t>
+  </si>
+  <si>
+    <t>pensou em sabor ? #grquentinhas é qualidade e sabor!
+temos quentinhas no valor de ;
+r$ 9,99 mais guaraná natural 😉👍
+r$ 11,99 mais guaraná natural
+peça já a sua !
+aceitamos cartões!!!!!💳
+nosso atendimento é de segunda a sábado https://t.co/gwibfsdq0q</t>
+  </si>
+  <si>
+    <t>@vola_volare vou fazer guaraná com jabuticaba. o que pode dar errado?</t>
+  </si>
+  <si>
+    <t>aquele pós almoço acompanhado de guaraná, gelo e laranja 
+zero baco</t>
+  </si>
+  <si>
+    <t>rt @ferjhon33: “tá bebendo guaraná e tá pegando ela” lima, luan. (@luan_lima94)</t>
+  </si>
+  <si>
+    <t>@icaroanalises toddy
+guaraná
+marvel
+de bruyne
+-
+guardiola
+paulo andrade
+-
+churrasco
+jorge jesus</t>
+  </si>
+  <si>
+    <t>@emanoel_bitt eu odeio qnd ei leio guarána
+lobinho guarána</t>
+  </si>
+  <si>
+    <t>@_p4zz só um eno guaraná depois kkk https://t.co/9obuylu00z</t>
+  </si>
+  <si>
+    <t>@loveygmin não tem, só guaraná mesmo 😞</t>
+  </si>
+  <si>
+    <t>rt @jao4444: as criança na the choice embrasando com guaraná</t>
+  </si>
+  <si>
+    <t>rt @vitoriafelix__: quem é q come doce com guaraná véi?????? doce combina com água apenax</t>
+  </si>
+  <si>
+    <t>a belle pediu p moça da padaria guarda o guaraná ontem q sobrou e agora passamos lá p beber kkkkkk</t>
+  </si>
+  <si>
+    <t>@guarana os dois tem a mesma quantidade</t>
+  </si>
+  <si>
+    <t>guardei um gole do guarana que eu comprei pra eu tomar a noite e to arrependida pq não guardei metade
+é a vida de quem mora sozinho é isso</t>
+  </si>
+  <si>
+    <t>@_fefob e meu café e meu guaraná</t>
+  </si>
+  <si>
+    <t>td q eu queria agora era um hambúrguer da bk e aquele refil de guaraná antárctica</t>
+  </si>
+  <si>
+    <t>olha só peguei minha folga na quinta pelo grenal, mas não sei se aguento até lá... estou o pó do guarana</t>
+  </si>
+  <si>
+    <t>@claeruh parece o billy de st, é escroto e faz/fala merda pra caralho a maior parte do tempo mas faz algo decente uma ou outra vez e vira o perfeito que mijam guaraná pra ele</t>
+  </si>
+  <si>
+    <t>tava com vinte conto e tava só a felicidade, fui pra outra cidade e bati um prato de estrogonofe com uma guaraná de 1l me arrependi e quero meu dinheiro de volta (o estrogonofe tava top mas eu tô pobre 😭😭😭)</t>
+  </si>
+  <si>
+    <t>botei meu guaraná no freezer e quase esqueço de pegar</t>
+  </si>
+  <si>
+    <t>e a vitoria que comeu bisnaga cm doritos enqnt tomava yakult com guarana</t>
+  </si>
+  <si>
+    <t>[09/03/2020 23:36:47] kai: strogonoff
+ [09/03/2020 23:36:49] kai: com coca
+ [09/03/2020 23:36:56] irmão💕: n bebo guaraná
+ [09/03/2020 23:37:03] kai: mas eu bebo</t>
+  </si>
+  <si>
+    <t>@biancatoure_ @joaopaulorlk kkkkkkkkkkkkkkkkk, guaraná era nossa breja</t>
+  </si>
+  <si>
+    <t>sou do rj e vim dizer que o camp de uva é o melhor guarana https://t.co/gmcy2z4atg</t>
+  </si>
+  <si>
+    <t>como que eu vou parar de tomar refri se guaraná antártica é a melhor coisa já criada nesse mundo ?</t>
+  </si>
+  <si>
+    <t>@papitoon guaraná com amendoim é vida kk</t>
+  </si>
+  <si>
+    <t>melhores bebidas do brasil: guaravita e guaraná jesus e sem choro https://t.co/cspq5zyrvs</t>
+  </si>
+  <si>
+    <t>rt @elianeribeirogo: guaraná antártica 
+brasileiro - 🇧🇷
+genuíno 
+-nada há melhor , com gelo e limão 🍋 https://t.co/t32hbz1dw3</t>
+  </si>
+  <si>
+    <t>@drewan_10 calma, sou burra, não entendi o pq você colocou guaraná água????????</t>
+  </si>
+  <si>
+    <t>@kadu_rsk de maracujá n tem , mas tem um guaraná</t>
+  </si>
+  <si>
+    <t>@nighttele nao falei amore, pra evitar conflito sabe. não ia morrer por causa de cinco euros mas agora apelaram tudo. beberam meu guaraná dois litros, comeram meu feijão. pronto sabe</t>
+  </si>
+  <si>
+    <t>@rebeca_a5 virou suco de guaraná issoaí</t>
+  </si>
+  <si>
+    <t>rt @quiel027: @obqdc @anthony_guarana tá com moral?</t>
+  </si>
+  <si>
+    <t>@_gbarth homens de cabeça raspada faz elas mija guarana</t>
+  </si>
+  <si>
+    <t>vou falar uma coisa que ninguém tem coragem de admitir: o guaraná tuchaua é maravilhoso (só com bastante gelo)</t>
+  </si>
+  <si>
+    <t>melhor que tomar guaraná, só beijar uma boca específica https://t.co/el4u9devhp</t>
+  </si>
+  <si>
+    <t>thiago comprou um montão de coisa no domingo, já acabou tudo, até o guaraná kkkkkkkkkkkkkkkkkkk q ódio</t>
+  </si>
+  <si>
+    <t>rt @hrmnyj: guaraná antartica é mil vezes melhor q coca.</t>
+  </si>
+  <si>
+    <t>eu acho que marta foi a única pessoa do mundo eleita seis vezes pela bola de ouro da fifa. e você? vota lá em @guarana. se é #coisadelas é #coisanossa.</t>
+  </si>
+  <si>
+    <t>eu acho que marta é a pessoa que mais marcou gols vestindo a canarinha. e você? vota lá em @guarana. se é #coisadelas é #coisanossa. 
+viva o futebol feminino caraio</t>
+  </si>
+  <si>
+    <t>matheus canella é o melhor entretenimento inútil da eternet. 1h23 nunca passaram tão rápido. obrigado @bearitz_  e @pedrotolhos  obrigado @guarana</t>
+  </si>
+  <si>
+    <t>@clairo_contrill @thisyd_ @guarana clasyd rebaixado com roda cromada tudo pra mim</t>
+  </si>
+  <si>
+    <t>um dos meninos que atendem aqui no parada mix, disse que eu sou a única cliente que toma guaraná antárctica  com uma rodela de limão, que sempre que alguém vai buscar lá dentro já sabem que eu to no estabelecimento kkkkk</t>
+  </si>
+  <si>
+    <t>eu acho que marta rainha goat é a pessoa que mais marcou gols vestindo a canarinha. e você? vota lá em @guarana. se é #coisadelas é #coisanossa.</t>
+  </si>
+  <si>
+    <t>mais um gaúcho conhecendo o melhor guaraná que existe 💁🏼‍♀️😅 https://t.co/rqrecjptcq</t>
+  </si>
+  <si>
+    <t>@icaroanalises toddy
+guaraná
+marvel
+kross
+lula
+guardiola
+paulo andrade
+casillas
+lasanha
+tite</t>
+  </si>
+  <si>
+    <t>eu acho que cris rozeira é considerada maior artilheira das olimpíadas. e você? vota lá em @guarana. se é #coisadelas é #coisanossa.
+quem é a outra opção? nunca ouvi falar</t>
+  </si>
+  <si>
+    <t>@jasrwgers itiiiiiiiiijehehehejejeje oh meu deus a irmã te ama demais! traz bolo sim, vamos comer muito bolo e guaraná</t>
+  </si>
+  <si>
+    <t>eu to sendo movida por estresse e pó de guaraná nos últimos dias</t>
+  </si>
+  <si>
+    <t>@icaroanalises nescau
+guaraná
+não sei escolher, gosto muito das duas
+de bronha
+lula, fogo no bozo, fogo no trump
+guardiola
+paulo
+buffon
+churrasco
+sou corinthiano, minha opinião seria tendenciosa
+mas vamo de tite hehehe</t>
+  </si>
+  <si>
+    <t>rt @tiobooboodepre: ja teve quarto branco. confirmou q vai ter poder supremo.
+pra ser o melhor bbb de todos, soh falta a prova do guarana…</t>
+  </si>
+  <si>
+    <t>@palindalgo @givndutra eh guarana natural com muito açúcar mas eh tao bom aaa</t>
+  </si>
+  <si>
+    <t>q vontade louca de tomar um refri, um guaraná bem geladinho 🥺🤦‍♀️</t>
+  </si>
+  <si>
+    <t>acabei de rasgar uma folha de papel na frente da manila (que tá no meu colo igual gato) e ela levou um susto que chegou a dar um pulo, tadinha
+ontem o susto foi com o gás quando abri uma garrafa de guaraná
+pode ou não ter a ver com o fato de que ela tava dormindo na hora</t>
+  </si>
+  <si>
+    <t>@h4fh4 @vittorguidoni hahahahahahaa guaraná antártica ou em pó? 😱😱😱😱😱</t>
+  </si>
+  <si>
+    <t>@rubinhoffc bebo só coca ou refri de guaraná kkkk, esses eu n gosto</t>
+  </si>
+  <si>
+    <t>quem votou q eu seria uma planta realmente não me conhece eu to brigando aqui por um guaraná eu em</t>
+  </si>
+  <si>
+    <t>como assim as pessoas não reconhecem que fanta guaraná é o melhor guaraná? poxa minha gente, existem formas melhores de desperdiçar a sua única passagem pela terra.</t>
+  </si>
+  <si>
+    <t>veja o novo refrigerante da guaraná antarctica sem açúcar e corantes https://t.co/y7sujfowch https://t.co/3duhazc4yr</t>
+  </si>
+  <si>
+    <t>me deu uma vontade absurda d guaraná agora, meu deus</t>
+  </si>
+  <si>
+    <t>aquela promo do guaraná antartica pequeno q vinham vários pokémons era simplesmente.......tudo</t>
+  </si>
+  <si>
+    <t>@gi_almv @needy_y @anksko @foradeorbitaa @namgukoo n sei pq mas me lembrei demais do guaraná kkkkkkkkkkkkkkkkkkk</t>
+  </si>
+  <si>
+    <t>@babs_costa tô tomando guaraná a uma semana, não fez efeito algum. tem que tomar a cafeína em cápsulas mesmo</t>
+  </si>
+  <si>
+    <t>eu comprei um guaraná dois litros em outra cidade, e abriram enquanto eu estava fora de casa. ou seja, eu não tomei nem um copo. eu vou fazer barraco sim. fodasse</t>
+  </si>
+  <si>
+    <t>@astronamaia nossa meu lanche era um pastel de queijo e kapo de chocolate ou nova skin de guaraná</t>
+  </si>
+  <si>
+    <t>guaraná kuat não é refrigerante, é remédio</t>
+  </si>
+  <si>
+    <t>guaraná mineiro ♥️</t>
+  </si>
+  <si>
+    <t>doli guaraná o sabor brasileiro
+doli guaraná doli
+o melhor</t>
+  </si>
+  <si>
+    <t>@icaroanalises nescau
+guaraná
+marvel
+de bruyne
+lula
+guardiola
+paulo andrade
+buffon
+churrasco
+jj</t>
+  </si>
+  <si>
+    <t>se tem uma coisa que eu gosto de beber é guaraná natural pqp 🤤🤤🤤</t>
+  </si>
+  <si>
+    <t>@joaomiguelbdb bicho eu penso isso mas com relação a colocar umas rodela de laranja no copo do guaraná</t>
+  </si>
+  <si>
+    <t>eu e bruno 2 viciados em guaraná</t>
+  </si>
+  <si>
+    <t>@ingridylavinnya valeu formigão, vasquinho, guaraná antártica 😂😂😂😂😂</t>
+  </si>
+  <si>
+    <t>acordei estressado, mas fui no mercado e lancei aquele guaraná do bom</t>
+  </si>
+  <si>
+    <t>rt @ana_llouise: putz liguei o ppv do #bbb20 é tão falando de açaí com banana, morango, guaraná, leite em pó, mel... aff é uma ofensa para…</t>
+  </si>
+  <si>
+    <t>@orioni @hastadlol alface com guaraná?</t>
+  </si>
+  <si>
+    <t>refri de guarana é bom demais</t>
+  </si>
+  <si>
+    <t>único refrigerante que me dá gatilho é o guaraná garoto q eu não posso ver q meu cerebro fica o próprio meme
+quelo beber refrigelante</t>
+  </si>
+  <si>
+    <t>@red_ cavill já tá se preparando para as filmagens com a red: três copos de liquidificador cheios por dia com caracu, ovos, amendoim e guaraná em pó.</t>
+  </si>
+  <si>
+    <t>gripado e derrubando um cuscuz com guaraná 🙏🏽</t>
+  </si>
+  <si>
+    <t>igor comprou lasanha e guaraná pra nós, simples mas de coração 🥰</t>
   </si>
 </sst>
 </file>
@@ -3127,7 +4396,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A52"/>
+  <dimension ref="A1:A361"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3393,6 +4662,1551 @@
         <v>352</v>
       </c>
     </row>
+    <row r="53" spans="1:1">
+      <c r="A53" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1">
+      <c r="A140" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1">
+      <c r="A147" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1">
+      <c r="A148" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1">
+      <c r="A149" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1">
+      <c r="A150" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1">
+      <c r="A151" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1">
+      <c r="A152" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1">
+      <c r="A153" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1">
+      <c r="A154" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1">
+      <c r="A155" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1">
+      <c r="A156" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1">
+      <c r="A157" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1">
+      <c r="A158" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1">
+      <c r="A159" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1">
+      <c r="A160" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1">
+      <c r="A161" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1">
+      <c r="A162" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1">
+      <c r="A163" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1">
+      <c r="A164" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1">
+      <c r="A165" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1">
+      <c r="A166" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1">
+      <c r="A167" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1">
+      <c r="A168" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1">
+      <c r="A169" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1">
+      <c r="A170" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1">
+      <c r="A171" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1">
+      <c r="A172" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1">
+      <c r="A173" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1">
+      <c r="A174" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1">
+      <c r="A175" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1">
+      <c r="A176" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1">
+      <c r="A177" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1">
+      <c r="A178" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1">
+      <c r="A179" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1">
+      <c r="A180" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1">
+      <c r="A181" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1">
+      <c r="A182" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1">
+      <c r="A183" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1">
+      <c r="A184" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1">
+      <c r="A185" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1">
+      <c r="A186" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1">
+      <c r="A187" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1">
+      <c r="A188" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1">
+      <c r="A189" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1">
+      <c r="A190" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1">
+      <c r="A191" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1">
+      <c r="A192" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1">
+      <c r="A193" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1">
+      <c r="A194" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1">
+      <c r="A195" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1">
+      <c r="A196" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1">
+      <c r="A197" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1">
+      <c r="A198" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1">
+      <c r="A199" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1">
+      <c r="A200" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1">
+      <c r="A201" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1">
+      <c r="A202" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1">
+      <c r="A203" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1">
+      <c r="A204" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1">
+      <c r="A205" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1">
+      <c r="A206" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1">
+      <c r="A207" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1">
+      <c r="A208" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1">
+      <c r="A209" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1">
+      <c r="A210" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1">
+      <c r="A211" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1">
+      <c r="A212" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1">
+      <c r="A213" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1">
+      <c r="A214" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1">
+      <c r="A215" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1">
+      <c r="A216" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1">
+      <c r="A217" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1">
+      <c r="A218" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1">
+      <c r="A219" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1">
+      <c r="A220" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1">
+      <c r="A221" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1">
+      <c r="A222" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1">
+      <c r="A223" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1">
+      <c r="A224" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1">
+      <c r="A225" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1">
+      <c r="A226" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1">
+      <c r="A227" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1">
+      <c r="A228" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1">
+      <c r="A229" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1">
+      <c r="A230" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1">
+      <c r="A231" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1">
+      <c r="A232" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1">
+      <c r="A233" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1">
+      <c r="A234" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1">
+      <c r="A235" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1">
+      <c r="A236" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1">
+      <c r="A237" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1">
+      <c r="A238" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1">
+      <c r="A239" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1">
+      <c r="A240" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1">
+      <c r="A241" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1">
+      <c r="A242" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1">
+      <c r="A243" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1">
+      <c r="A244" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1">
+      <c r="A245" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1">
+      <c r="A246" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1">
+      <c r="A247" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1">
+      <c r="A248" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1">
+      <c r="A249" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1">
+      <c r="A250" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1">
+      <c r="A251" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1">
+      <c r="A252" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1">
+      <c r="A253" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1">
+      <c r="A254" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1">
+      <c r="A255" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1">
+      <c r="A256" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1">
+      <c r="A257" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1">
+      <c r="A258" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1">
+      <c r="A259" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1">
+      <c r="A260" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1">
+      <c r="A261" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1">
+      <c r="A262" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1">
+      <c r="A263" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1">
+      <c r="A264" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1">
+      <c r="A265" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1">
+      <c r="A266" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1">
+      <c r="A267" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1">
+      <c r="A268" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1">
+      <c r="A269" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1">
+      <c r="A270" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1">
+      <c r="A271" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1">
+      <c r="A272" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1">
+      <c r="A273" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1">
+      <c r="A274" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1">
+      <c r="A275" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1">
+      <c r="A276" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1">
+      <c r="A277" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1">
+      <c r="A278" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1">
+      <c r="A279" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1">
+      <c r="A280" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1">
+      <c r="A281" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1">
+      <c r="A282" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1">
+      <c r="A283" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1">
+      <c r="A284" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1">
+      <c r="A285" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1">
+      <c r="A286" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1">
+      <c r="A287" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1">
+      <c r="A288" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1">
+      <c r="A289" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1">
+      <c r="A290" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1">
+      <c r="A291" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1">
+      <c r="A292" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1">
+      <c r="A293" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1">
+      <c r="A294" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1">
+      <c r="A295" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1">
+      <c r="A296" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1">
+      <c r="A297" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1">
+      <c r="A298" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1">
+      <c r="A299" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1">
+      <c r="A300" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1">
+      <c r="A301" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1">
+      <c r="A302" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1">
+      <c r="A303" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1">
+      <c r="A304" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1">
+      <c r="A305" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1">
+      <c r="A306" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1">
+      <c r="A307" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1">
+      <c r="A308" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1">
+      <c r="A309" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1">
+      <c r="A310" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1">
+      <c r="A311" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1">
+      <c r="A312" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1">
+      <c r="A313" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1">
+      <c r="A314" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1">
+      <c r="A315" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1">
+      <c r="A316" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1">
+      <c r="A317" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1">
+      <c r="A318" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1">
+      <c r="A319" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1">
+      <c r="A320" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1">
+      <c r="A321" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1">
+      <c r="A322" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1">
+      <c r="A323" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1">
+      <c r="A324" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1">
+      <c r="A325" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1">
+      <c r="A326" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1">
+      <c r="A327" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1">
+      <c r="A328" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1">
+      <c r="A329" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1">
+      <c r="A330" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1">
+      <c r="A331" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1">
+      <c r="A332" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1">
+      <c r="A333" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1">
+      <c r="A334" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1">
+      <c r="A335" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1">
+      <c r="A336" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1">
+      <c r="A337" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1">
+      <c r="A338" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1">
+      <c r="A339" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1">
+      <c r="A340" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1">
+      <c r="A341" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1">
+      <c r="A342" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1">
+      <c r="A343" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1">
+      <c r="A344" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1">
+      <c r="A345" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1">
+      <c r="A346" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1">
+      <c r="A347" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1">
+      <c r="A348" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1">
+      <c r="A349" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1">
+      <c r="A350" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1">
+      <c r="A351" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1">
+      <c r="A352" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1">
+      <c r="A353" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1">
+      <c r="A354" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1">
+      <c r="A355" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1">
+      <c r="A356" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1">
+      <c r="A357" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1">
+      <c r="A358" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1">
+      <c r="A359" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1">
+      <c r="A360" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1">
+      <c r="A361" t="s">
+        <v>661</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
